--- a/runtime_dev/apps/delphes/delphes.xlsx
+++ b/runtime_dev/apps/delphes/delphes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Documents/Dev/Athena/trusted-service/runtime_dev/apps/delphes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AC1D51-882D-2C4E-9FD2-EFCC33A2A67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783734B1-3E6A-8841-926A-EE04FA830198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="33600" windowHeight="18860" tabRatio="973" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18860" tabRatio="973" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP &amp; MODEL" sheetId="25" r:id="rId1"/>
@@ -1419,7 +1419,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1472,8 +1472,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1863,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40884519-E9E2-4702-AA20-B46B229B9942}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2233,7 +2236,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="29" t="s">
         <v>353</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2250,7 +2253,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="29" t="s">
         <v>356</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2267,7 +2270,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="29" t="s">
         <v>359</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2284,7 +2287,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="29" t="s">
         <v>362</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2301,7 +2304,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="29" t="s">
         <v>365</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2318,7 +2321,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="29" t="s">
         <v>368</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3532,7 +3535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A280385-38F0-446C-9432-C0DF8BDF752B}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/runtime_dev/apps/delphes/delphes.xlsx
+++ b/runtime_dev/apps/delphes/delphes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Documents/Dev/Athena/trusted-service/runtime_dev/apps/delphes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783734B1-3E6A-8841-926A-EE04FA830198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74382A74-88B3-994E-8740-881D8FE2D379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18860" tabRatio="973" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18860" tabRatio="973" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP &amp; MODEL" sheetId="25" r:id="rId1"/>
@@ -18,20 +18,19 @@
     <sheet name="localized_app" sheetId="14" r:id="rId3"/>
     <sheet name="messages_to_agent" sheetId="21" r:id="rId4"/>
     <sheet name="messages_to_requester" sheetId="20" r:id="rId5"/>
-    <sheet name="Feuil1" sheetId="31" r:id="rId6"/>
-    <sheet name="case_fields" sheetId="10" r:id="rId7"/>
-    <sheet name="TEXT ANALYSIS" sheetId="26" r:id="rId8"/>
-    <sheet name="text_analysis" sheetId="1" r:id="rId9"/>
-    <sheet name="definitions" sheetId="7" r:id="rId10"/>
-    <sheet name="intentions" sheetId="2" r:id="rId11"/>
-    <sheet name="DECISION" sheetId="27" r:id="rId12"/>
-    <sheet name="decision_engine_configs" sheetId="29" r:id="rId13"/>
-    <sheet name="DISTRIBUTION" sheetId="28" r:id="rId14"/>
-    <sheet name="email_config" sheetId="13" r:id="rId15"/>
-    <sheet name="email_templates" sheetId="11" r:id="rId16"/>
-    <sheet name="APP-SPECIFIC" sheetId="22" r:id="rId17"/>
-    <sheet name="statuts" sheetId="30" r:id="rId18"/>
-    <sheet name="arrondissements" sheetId="23" r:id="rId19"/>
+    <sheet name="case_fields" sheetId="10" r:id="rId6"/>
+    <sheet name="TEXT ANALYSIS" sheetId="26" r:id="rId7"/>
+    <sheet name="text_analysis" sheetId="1" r:id="rId8"/>
+    <sheet name="definitions" sheetId="7" r:id="rId9"/>
+    <sheet name="intentions" sheetId="2" r:id="rId10"/>
+    <sheet name="DECISION" sheetId="27" r:id="rId11"/>
+    <sheet name="decision_engine_configs" sheetId="29" r:id="rId12"/>
+    <sheet name="DISTRIBUTION" sheetId="28" r:id="rId13"/>
+    <sheet name="email_config" sheetId="13" r:id="rId14"/>
+    <sheet name="email_templates" sheetId="11" r:id="rId15"/>
+    <sheet name="APP-SPECIFIC" sheetId="22" r:id="rId16"/>
+    <sheet name="statuts" sheetId="30" r:id="rId17"/>
+    <sheet name="arrondissements" sheetId="23" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="407">
   <si>
     <t>Parameter</t>
   </si>
@@ -1175,45 +1174,30 @@
     <t>rdv_remise_de_titre</t>
   </si>
   <si>
-    <t>PRISE DE RENDEZ_VOUS REMISE DE TITRES</t>
-  </si>
-  <si>
     <t>Le demandeur demande un rendez-vous pour une remise de titre</t>
   </si>
   <si>
     <t>rdv_renouvellement_recepisse</t>
   </si>
   <si>
-    <t>PRISE DE RENDEZ_VOUS RENOUVELLEMENT RECEPISSE</t>
-  </si>
-  <si>
     <t>Le demandeur demande un rendez-vous pour le renouvellement de son récépissé</t>
   </si>
   <si>
     <t>rdv_renouvellement_titre_sejour_hors_anef</t>
   </si>
   <si>
-    <t>PRISE DE RENDEZ_VOUS RENOUVELLEMENT DE TITRE DE SEJOUR HORS ANEF</t>
-  </si>
-  <si>
     <t>Le demandeur demande un rendez-vous pour le renouvellement d'un titre de séjour. Sa demande s'inscrit dans un processus géré en dehors du site de l'anef</t>
   </si>
   <si>
     <t>rdv_sauf_conduit</t>
   </si>
   <si>
-    <t>PRISE DE RENDEZ_VOUS SAUF-CONDUITS</t>
-  </si>
-  <si>
     <t>Le demandeur demande un rendez-vous pour un sauf-conduit</t>
   </si>
   <si>
     <t>rdv_premiere_demande_titre_sejour</t>
   </si>
   <si>
-    <t>PRISE DE RENDEZ_VOUS PREMIERE DEMANDE DE TITRE DE SEJOUR</t>
-  </si>
-  <si>
     <t>Le demandeur demande un rendez-vous pour une première demande de titre de séjour</t>
   </si>
   <si>
@@ -1293,15 +1277,67 @@
   </si>
   <si>
     <t>Please go to the reception desk at the prefecture to make this request in person.</t>
+  </si>
+  <si>
+    <t>date_expiration_recepisse</t>
+  </si>
+  <si>
+    <t>Acknowledgement document expiry date (DD/MM/YYYY)</t>
+  </si>
+  <si>
+    <t>Date d'expiration du récépissé au format JJ/MM/AAAA</t>
+  </si>
+  <si>
+    <t>Acknowledgement document expiration date formatted as DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>date d'expiration du récépissé au format JJ/MM/AAAA</t>
+  </si>
+  <si>
+    <t>date_expiration_titre_sejour</t>
+  </si>
+  <si>
+    <t>Resident permit expiry date (DD/MM/YYYY)</t>
+  </si>
+  <si>
+    <t>Date d'expiration du titre de séjour au format JJ/MM/AAAA</t>
+  </si>
+  <si>
+    <t>Resident permit expiration date formatted as DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>date d'expiration du titre de séjour au format JJ/MM/AAAA</t>
+  </si>
+  <si>
+    <t>PRISE DE RENDEZ-VOUS PREMIERE DEMANDE DE TITRE DE SEJOUR</t>
+  </si>
+  <si>
+    <t>PRISE DE RENDEZ-VOUS SAUF-CONDUITS</t>
+  </si>
+  <si>
+    <t>PRISE DE RENDEZ-VOUS RENOUVELLEMENT DE TITRE DE SEJOUR HORS ANEF</t>
+  </si>
+  <si>
+    <t>PRISE DE RENDEZ-VOUS RENOUVELLEMENT RECEPISSE</t>
+  </si>
+  <si>
+    <t>PRISE DE RENDEZ-VOUS REMISE DE TITRES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1416,10 +1452,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1427,24 +1463,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1452,21 +1488,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1475,8 +1511,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1776,98 +1818,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F212B83-BB31-486E-8D1E-C153171C389E}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="2" max="2" width="90.1640625" customWidth="1"/>
-    <col min="3" max="3" width="108.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40884519-E9E2-4702-AA20-B46B229B9942}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A30"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2240,10 +2195,10 @@
         <v>353</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>354</v>
@@ -2257,84 +2212,84 @@
         <v>356</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D26" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>357</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>359</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>363</v>
+        <v>373</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>404</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>366</v>
+        <v>375</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>403</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>369</v>
+        <v>376</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>402</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2343,7 +2298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5987CB-B31E-4266-A5A3-C356313D0A31}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -2360,7 +2315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94FBD62-D62F-48D9-8AC0-E46102572B8C}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2468,7 +2423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C421946-477F-451E-AF1F-9EE7DF5B81A2}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -2485,7 +2440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD020DE-44B7-44EF-BEA3-8491F2595E0A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2525,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -2585,7 +2540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAADDD23-DB13-4EC8-8D22-BE27FCA5478C}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2675,7 +2630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8AFBFA-5790-4484-BB1A-96526826C9C1}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -2692,12 +2647,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3196DC8C-1CF2-1843-8E1D-27C89DB08A56}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD16"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3004,7 +2959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316FA168-2252-420B-B68F-E9525D61AA2D}">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -3536,7 +3491,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3566,10 +3521,10 @@
         <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -3578,10 +3533,10 @@
         <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>196</v>
@@ -3592,22 +3547,22 @@
         <v>193</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3617,23 +3572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F74B94-09A3-594C-94DF-4EC15E7E134C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF16B1B1-A6B4-4B56-9813-CCF1B731EDAC}">
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF16B1B1-A6B4-4B56-9813-CCF1B731EDAC}">
-  <dimension ref="A1:Q13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="N1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4275,8 +4218,8 @@
       <c r="L12" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="M12" s="13" t="s">
-        <v>241</v>
+      <c r="M12" t="s">
+        <v>360</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>241</v>
@@ -4293,16 +4236,16 @@
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>234</v>
@@ -4311,21 +4254,127 @@
         <v>289</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N13" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="M15" t="s">
+        <v>360</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="8" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4340,7 +4389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812DA96A-08DE-4357-A9EB-94B5058F1275}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -4357,7 +4406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4406,4 +4455,91 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F212B83-BB31-486E-8D1E-C153171C389E}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="90.1640625" customWidth="1"/>
+    <col min="3" max="3" width="108.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/runtime_dev/apps/delphes/delphes.xlsx
+++ b/runtime_dev/apps/delphes/delphes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Documents/Dev/Athena/trusted-service/runtime_dev/apps/delphes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74382A74-88B3-994E-8740-881D8FE2D379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743FE121-BEFA-3E45-B0E8-B594C0B7E12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18860" tabRatio="973" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1174,33 +1174,18 @@
     <t>rdv_remise_de_titre</t>
   </si>
   <si>
-    <t>Le demandeur demande un rendez-vous pour une remise de titre</t>
-  </si>
-  <si>
     <t>rdv_renouvellement_recepisse</t>
   </si>
   <si>
-    <t>Le demandeur demande un rendez-vous pour le renouvellement de son récépissé</t>
-  </si>
-  <si>
     <t>rdv_renouvellement_titre_sejour_hors_anef</t>
   </si>
   <si>
-    <t>Le demandeur demande un rendez-vous pour le renouvellement d'un titre de séjour. Sa demande s'inscrit dans un processus géré en dehors du site de l'anef</t>
-  </si>
-  <si>
     <t>rdv_sauf_conduit</t>
   </si>
   <si>
-    <t>Le demandeur demande un rendez-vous pour un sauf-conduit</t>
-  </si>
-  <si>
     <t>rdv_premiere_demande_titre_sejour</t>
   </si>
   <si>
-    <t>Le demandeur demande un rendez-vous pour une première demande de titre de séjour</t>
-  </si>
-  <si>
     <t>DIFFICULTY IN MAKING APPOINTMENTS</t>
   </si>
   <si>
@@ -1249,9 +1234,6 @@
     <t>Safe conduct is requested on grounds of death.</t>
   </si>
   <si>
-    <t>envoishibou78@gmail.com</t>
-  </si>
-  <si>
     <t>ACCUEIL</t>
   </si>
   <si>
@@ -1322,6 +1304,24 @@
   </si>
   <si>
     <t>PRISE DE RENDEZ-VOUS REMISE DE TITRES</t>
+  </si>
+  <si>
+    <t>pocagent78@gmail.com</t>
+  </si>
+  <si>
+    <t>Le demandeur désire prendre un rendez-vous. La raison du rendez-vous est : remise de titre</t>
+  </si>
+  <si>
+    <t>Le demandeur sollicite la prise d'un rendez-vous pour le renouvellement de son récépissé</t>
+  </si>
+  <si>
+    <t>Le demandeur demande à prendre un rendez-vous pour le renouvellement d'un titre de séjour. Sa demande s'inscrit dans un processus géré en dehors du site de l'anef</t>
+  </si>
+  <si>
+    <t>Le demandeur demande à prendre un rendez-vous pour un sauf-conduit</t>
+  </si>
+  <si>
+    <t>Le demandeur demande à prendre un rendez-vous pour une première demande de titre de séjour</t>
   </si>
 </sst>
 </file>
@@ -1822,7 +1822,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2195,15 +2195,15 @@
         <v>353</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="31" t="s">
         <v>355</v>
       </c>
     </row>
@@ -2212,84 +2212,84 @@
         <v>356</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>357</v>
+        <v>400</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>359</v>
+        <v>399</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D28" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E28" s="31" t="s">
         <v>404</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>363</v>
+        <v>397</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>365</v>
+        <v>396</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -2445,7 +2445,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -3521,10 +3521,10 @@
         <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -3533,10 +3533,10 @@
         <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>196</v>
@@ -3547,22 +3547,22 @@
         <v>193</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -4219,7 +4219,7 @@
         <v>233</v>
       </c>
       <c r="M12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>241</v>
@@ -4236,16 +4236,16 @@
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>234</v>
@@ -4257,13 +4257,13 @@
         <v>233</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="N13" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>76</v>
@@ -4274,16 +4274,16 @@
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>234</v>
@@ -4310,13 +4310,13 @@
         <v>233</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>76</v>
@@ -4327,16 +4327,16 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>234</v>
@@ -4363,13 +4363,13 @@
         <v>233</v>
       </c>
       <c r="M15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>76</v>

--- a/runtime_dev/apps/delphes/delphes.xlsx
+++ b/runtime_dev/apps/delphes/delphes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Documents/Dev/Athena/trusted-service/runtime_dev/apps/delphes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743FE121-BEFA-3E45-B0E8-B594C0B7E12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BDC718-163E-264C-8597-B4C5ADA58B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18860" tabRatio="973" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18860" tabRatio="973" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP &amp; MODEL" sheetId="25" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="460">
   <si>
     <t>Parameter</t>
   </si>
@@ -359,6 +359,963 @@
   </si>
   <si>
     <t>Votre demande de sauf-conduit</t>
+  </si>
+  <si>
+    <t>http://localhost:9060/DecisionService/rest/delphes/case_handling_decision</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Date de la demande au format JJ/MM/AAAA</t>
+  </si>
+  <si>
+    <t>Date d'expiration de l'API au format JJ/MM/AAAA</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>15/09/2024</t>
+  </si>
+  <si>
+    <t>help_fr</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>https://administration-etrangers-en-france.interieur.gouv.fr/particuliers/assets/img/form-help/numero_etranger_titre_sejour.jpg</t>
+  </si>
+  <si>
+    <t>Exemple : nom@exemple.com</t>
+  </si>
+  <si>
+    <t>arrondissement</t>
+  </si>
+  <si>
+    <t>https://www.yvelines.gouv.fr/contenu/telechargement/29247/169330/file/bloc%201.2%20-%20Annexe%202_Liste%20des%20communes%20et%20arrondissements%201er%20janvier%202017.pdf</t>
+  </si>
+  <si>
+    <t>Versailles</t>
+  </si>
+  <si>
+    <t>Rambouillet</t>
+  </si>
+  <si>
+    <t>Saint-Germain-en-Laye</t>
+  </si>
+  <si>
+    <t>VERS</t>
+  </si>
+  <si>
+    <t>RAMB</t>
+  </si>
+  <si>
+    <t>SGEL</t>
+  </si>
+  <si>
+    <t>MLJ</t>
+  </si>
+  <si>
+    <t>Mantes-la-Jolie</t>
+  </si>
+  <si>
+    <t>label_en</t>
+  </si>
+  <si>
+    <t>definition_en</t>
+  </si>
+  <si>
+    <t>description_en</t>
+  </si>
+  <si>
+    <t>subject_en</t>
+  </si>
+  <si>
+    <t>body_en</t>
+  </si>
+  <si>
+    <t>help_en</t>
+  </si>
+  <si>
+    <t>system_prompt_prefix_en</t>
+  </si>
+  <si>
+    <t># Comments must be in column A before the table</t>
+  </si>
+  <si>
+    <t># Do not add a fallback intention; Such an intention called "other" will be added automatically</t>
+  </si>
+  <si>
+    <t>Le demandeur veut retourner dans son pays pour motif exceptionnel (par exemple : décès d'un proche, mariage d'un proche, naissance)</t>
+  </si>
+  <si>
+    <t>Date of application (DD/MM/YYYY)</t>
+  </si>
+  <si>
+    <t>Department of application</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>Foreign‑national identification number (Numéro Étranger)</t>
+  </si>
+  <si>
+    <t>Numéro Étranger</t>
+  </si>
+  <si>
+    <t>District (arrondissement) of residence</t>
+  </si>
+  <si>
+    <t>API expiry date (DD/MM/YYYY)</t>
+  </si>
+  <si>
+    <t>Notice of risk on employment</t>
+  </si>
+  <si>
+    <t>Refugee status or subsidiary protection</t>
+  </si>
+  <si>
+    <t>Statut de réfugié ou protection subsidiaire</t>
+  </si>
+  <si>
+    <t>Arrondissement de rattachement de la commune de résidence</t>
+  </si>
+  <si>
+    <t>Admission Exceptionnelle au Séjour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attestation de Prolongation de l’Instruction, document généré depuis la plateforme ANEF </t>
+  </si>
+  <si>
+    <t>Document de Circulation pour Etranger Mineur</t>
+  </si>
+  <si>
+    <t>Admission Exceptionnelle au Séjour (Exceptional Admission to Residence)</t>
+  </si>
+  <si>
+    <t>The platform that allows users to carry out a number of procedures: validation of a Long-Stay Visa serving as a Residence Permit, applications concerning certain residence permits, application for travel documents, application for naturalisation, application for work authorisation, and change of address</t>
+  </si>
+  <si>
+    <t>Attestation de Prolongation de l’Instruction (Certificate of Extension of Processing, a document generated from the ANEF platform)</t>
+  </si>
+  <si>
+    <t>Document de Circulation pour Etranger Mineur (Travel Document for a Minor Foreigner)</t>
+  </si>
+  <si>
+    <t>EXPIRATION OF AN API (ATTESTATION DE PROLONGATION D’INSTRUCTION – EXTENSION‑OF‑PROCESSING CERTIFICATE)</t>
+  </si>
+  <si>
+    <t>FILING AN ASYLUM APPLICATION</t>
+  </si>
+  <si>
+    <t>STATUS OF MY PENDING ASYLUM APPLICATION</t>
+  </si>
+  <si>
+    <t>EXPIRATION OF AN ATDA (ASYLUM‑SEEKER CERTIFICATE)</t>
+  </si>
+  <si>
+    <t>UPDATING ATDA INFORMATION</t>
+  </si>
+  <si>
+    <t>REQUEST CONCERNING AN ONGOING DUBLIN PROCEDURE</t>
+  </si>
+  <si>
+    <t>UKRAINIAN NATIONAL REQUESTS A NEW RESIDENCE PERMIT</t>
+  </si>
+  <si>
+    <t>UKRAINIAN NATIONAL REQUESTS RENEWAL OF THEIR PERMIT</t>
+  </si>
+  <si>
+    <t>UKRAINIAN NATIONAL – OTHER REQUEST</t>
+  </si>
+  <si>
+    <t>REQUEST FROM A STUDENT IN A MOBILITY PROGRAMME</t>
+  </si>
+  <si>
+    <t>REQUEST FROM A TRAINEE ATTACHED TO THE MEDICAL PROFESSION</t>
+  </si>
+  <si>
+    <t>DIFFICULTIES WITH THE ANEF WEBSITE</t>
+  </si>
+  <si>
+    <t>CHANGE OF STATUS FROM STUDENT TO SALARIED EMPLOYEE</t>
+  </si>
+  <si>
+    <t>CHANGE OF STATUS FROM STUDENT TO JOB SEEKER</t>
+  </si>
+  <si>
+    <t>APPLICATION FOR A “PRIVATE AND FAMILY LIFE” RESIDENCE PERMIT OUTSIDE THE ANEF PORTAL</t>
+  </si>
+  <si>
+    <t>FILING A PERMIT APPLICATION AND UNABLE TO CREATE MY ANEF ACCOUNT</t>
+  </si>
+  <si>
+    <t>FILING A PERMIT APPLICATION AND ENCOUNTERING ANOTHER BLOCKAGE ON THE ANEF SITE</t>
+  </si>
+  <si>
+    <t>FILING A PERMIT APPLICATION AND ANOTHER ANEF‑RELATED PROBLEM</t>
+  </si>
+  <si>
+    <t>I WANT TO RETURN TO MY COUNTRY FOR AN EXCEPTIONAL REASON</t>
+  </si>
+  <si>
+    <t>Expiration of your API</t>
+  </si>
+  <si>
+    <t>{prenom} {nom},
+We have processed your request dated {date_demande} regarding the expiration of an API</t>
+  </si>
+  <si>
+    <t>Your request for a safe‑conduct pass</t>
+  </si>
+  <si>
+    <t>{prenom} {nom},
+In response to your request, please send us copies of the following:
+the translated death certificate
+your birth certificate
+the date of the funeral
+your residence permit
+proof of address less than six months old, with “URGENT REQUEST FOR A SAFE-CONDUCT” in the subject line.
+I hope this gives you the information you were looking for.</t>
+  </si>
+  <si>
+    <t>DELPHES</t>
+  </si>
+  <si>
+    <t>app_name_fr</t>
+  </si>
+  <si>
+    <t>app_description_fr</t>
+  </si>
+  <si>
+    <t>app_name_en</t>
+  </si>
+  <si>
+    <t>app_description_en</t>
+  </si>
+  <si>
+    <t>Whether emails are sent or not</t>
+  </si>
+  <si>
+    <t>send_email</t>
+  </si>
+  <si>
+    <t>EXPIRATION OF AN API (EXTENSION‑OF‑PROCESSING CERTIFICATE)</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>text_en</t>
+  </si>
+  <si>
+    <t>text_fr</t>
+  </si>
+  <si>
+    <t>ACK</t>
+  </si>
+  <si>
+    <t>API_VA_EXPIRER_DANS_X_JOURS</t>
+  </si>
+  <si>
+    <t>L'API va expirer dans {0} jour(s)</t>
+  </si>
+  <si>
+    <t>API will expire in {0} day(s)</t>
+  </si>
+  <si>
+    <t>CONTACT_OFPRA</t>
+  </si>
+  <si>
+    <t>VISIT_PAGE</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Markdown link of the form [text](url)</t>
+  </si>
+  <si>
+    <t>API_EXPIREE_DEPUIS_X_JOURS</t>
+  </si>
+  <si>
+    <t>API expired {0} day(s) ago</t>
+  </si>
+  <si>
+    <t>RISQUE_SUR_EMPLOI</t>
+  </si>
+  <si>
+    <t>Risk on employment</t>
+  </si>
+  <si>
+    <t>Risque sur l'emploi</t>
+  </si>
+  <si>
+    <t>ukr_demande_renouv_titre</t>
+  </si>
+  <si>
+    <t>ukr_autre_demande</t>
+  </si>
+  <si>
+    <t>ukr_demande_un_nouveau_titre</t>
+  </si>
+  <si>
+    <t>ou_en_est_ma_dem_asile_en_cours</t>
+  </si>
+  <si>
+    <t>dem_etudiant_progr_mobilite</t>
+  </si>
+  <si>
+    <t>depot_dem_titre_autre_pb_anef</t>
+  </si>
+  <si>
+    <t>dem_retour_pays_motif_except</t>
+  </si>
+  <si>
+    <t>depot_dem_titre_pb_cr_cpte_anef</t>
+  </si>
+  <si>
+    <t>diff_avec_le_site_de_l_anef</t>
+  </si>
+  <si>
+    <t>dem_en_rapport_dublin_en_cours</t>
+  </si>
+  <si>
+    <t>sollicit_titre_vpf_hors_anef</t>
+  </si>
+  <si>
+    <t>dem_stagiaire_prof_medic</t>
+  </si>
+  <si>
+    <t>chang_stat_etud_a_salarie</t>
+  </si>
+  <si>
+    <t>chang_stat_etud_a_rech_empl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aujourd'hui est le {date_demande} (JJ/MM/AAAA).  
+Vous êtes un agent en charge d'analyser des demandes en rapport avec les procédures d'Asile ou de Séjour envoyées par des demandeurs étrangers à une Préfecture de département.  </t>
+  </si>
+  <si>
+    <t>API expiration date formatted as DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>requester has refugee status or subsidiary protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today is {date_demande} (DD/MM/YYYY).  
+You are an officer responsible for reviewing applications related to asylum or residence procedures submitted by foreign applicants to a departmental prefecture in France.  </t>
+  </si>
+  <si>
+    <t>mention of risk on employment</t>
+  </si>
+  <si>
+    <t>Attestation de Demande d’Asile (Certificate of Asylum Application)</t>
+  </si>
+  <si>
+    <t>depot_dem_titre_autre_blocage_anef</t>
+  </si>
+  <si>
+    <t>Demandeurs Etrangers, Logique de Priorisation et Hiérarchisation des E-mails pour les Services  
+DELPHES est une solution innovante et efficace de prétraitement et de routage intelligent des demandes adressées par des demandeurs étrangers aux préfectures. Cette solution est construite sur le framework Athena Démarches en Confiance.</t>
+  </si>
+  <si>
+    <t>Demandeurs Etrangers, Logique de Priorisation et Hiérarchisation des E-mails pour les Services  
+DELPHES is an innovative, efficient solution for pre‑processing and intelligently routing applications submitted by foreign applicants to prefectural offices in France. The system is built on the Athena Trusted Services framework.</t>
+  </si>
+  <si>
+    <t>{departement} == 78</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>Antony</t>
+  </si>
+  <si>
+    <t>BOULO</t>
+  </si>
+  <si>
+    <t>Boulogne-Billancourt</t>
+  </si>
+  <si>
+    <t>NANTER</t>
+  </si>
+  <si>
+    <t>Nanterre</t>
+  </si>
+  <si>
+    <t>{departement} == 92</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>condition_python</t>
+  </si>
+  <si>
+    <t>condition_javascript</t>
+  </si>
+  <si>
+    <t>{departement} === 78</t>
+  </si>
+  <si>
+    <t>{departement} === 92</t>
+  </si>
+  <si>
+    <t>arrondissements</t>
+  </si>
+  <si>
+    <t>allowed_values_list_name</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t># If an element must be always present, us 'True in condition_python and 'true in condition_javascript</t>
+  </si>
+  <si>
+    <t>en, fr</t>
+  </si>
+  <si>
+    <t>Example : nom@example.com</t>
+  </si>
+  <si>
+    <t>sample_message_en</t>
+  </si>
+  <si>
+    <t>sample_message_fr</t>
+  </si>
+  <si>
+    <t>locales</t>
+  </si>
+  <si>
+    <t>odm</t>
+  </si>
+  <si>
+    <t>parameter1</t>
+  </si>
+  <si>
+    <t>parameter2</t>
+  </si>
+  <si>
+    <t>parameter3</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>engine_type</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>parameter2: traces/no_traces</t>
+  </si>
+  <si>
+    <t>odm traces</t>
+  </si>
+  <si>
+    <t>odm no_traces</t>
+  </si>
+  <si>
+    <t>do not rename as it is the default value for v1 legacy calls</t>
+  </si>
+  <si>
+    <t>trace_rules</t>
+  </si>
+  <si>
+    <t>no_trace_rules</t>
+  </si>
+  <si>
+    <t>DecisionEngineDelphes</t>
+  </si>
+  <si>
+    <t>runtime.apps.delphes.decision_engine</t>
+  </si>
+  <si>
+    <t>EVRY</t>
+  </si>
+  <si>
+    <t>Etampes</t>
+  </si>
+  <si>
+    <t>ETAM</t>
+  </si>
+  <si>
+    <t>PALA</t>
+  </si>
+  <si>
+    <t>Evry</t>
+  </si>
+  <si>
+    <t>Palaiseau</t>
+  </si>
+  <si>
+    <t>{departement} == 91</t>
+  </si>
+  <si>
+    <t>{departement} === 91</t>
+  </si>
+  <si>
+    <t>BOBI</t>
+  </si>
+  <si>
+    <t>RAIN</t>
+  </si>
+  <si>
+    <t>STDEN</t>
+  </si>
+  <si>
+    <t>Bobigny</t>
+  </si>
+  <si>
+    <t>Le Raincy</t>
+  </si>
+  <si>
+    <t>Saint-Denis</t>
+  </si>
+  <si>
+    <t>{departement} == 93</t>
+  </si>
+  <si>
+    <t>{departement} === 93</t>
+  </si>
+  <si>
+    <t>CRET</t>
+  </si>
+  <si>
+    <t>NOGE</t>
+  </si>
+  <si>
+    <t>LHAY</t>
+  </si>
+  <si>
+    <t>Créteil</t>
+  </si>
+  <si>
+    <t>Nogent-sur-Marne</t>
+  </si>
+  <si>
+    <t>L'Haÿ-les-Roses</t>
+  </si>
+  <si>
+    <t>{departement} == 94</t>
+  </si>
+  <si>
+    <t>{departement} === 94</t>
+  </si>
+  <si>
+    <t>data_enrichment</t>
+  </si>
+  <si>
+    <t>REQUESTER</t>
+  </si>
+  <si>
+    <t>Hello,
+I am writing on behalf of one of our members, Mr C C, whose case is rather complex and whose residence‑permit renewal application number (numéro de la demande de renouvellement de carte de séjour) is 7500000000000000003.
+He currently holds subsidiary protection status and would like to travel to his home country, on a temporary and exceptional basis, to attend his father’s funeral.
+He would also like to submit an asylum application.
+In addition, Mr C’s processing‑extension certificate will expire on 11 October 2024. He therefore wishes to obtain a new certificate so he can prove the legality of his stay while awaiting his residence permit.
+Without action in the next few days, he risks losing his job.
+Thank you in advance for your attention; please note the urgency—his employment is at stake, so this matter is very important.
+Mr C would furthermore like to file an asylum request with France.</t>
+  </si>
+  <si>
+    <t>Bonjour, 
+Je vous sollicite pour le compte de l'un de nos adhérents, Monsieur C C, dont la situation est assez complexe, et dont le numéro de la demande de renouvellement de carte de séjour est le 7500000000000000003.
+Il bénéficie actuellement du statut de protection subsidiaire et aimerait se rendre dans son pays de façon temporaire et exceptionnelle pour assister aux obsèques de son père.
+Il aimerait déposer une demande de droit d'asile.
+Par ailleurs, l'attestation de prolongation d'instruction de Monsieur C arrivera à expiration le 11 octobre 2024. Aussi, il souhaiterait obtenir une nouvelle attestation pour pouvoir justifier de la régularité de son séjour, dans l'attente de recevoir carte de séjour. 
+Sans action dans les prochains jours, il risquera de perdre son travail.
+Je vous remercie par avance et vous prie de noter l'urgence. Il risque son emploi, c'est donc très important.
+Monsieur C aimerait, par ailleurs, faire une demande d'Asile à la France.</t>
+  </si>
+  <si>
+    <t>Athena.Delphes@gmail.com</t>
+  </si>
+  <si>
+    <t>tubd yhuh fgiq hqrs</t>
+  </si>
+  <si>
+    <t>{prenom} {nom},
+Nous accusons réception de votre demande du {date_demande} concernant l’expiration de votre Autorisation Provisoire de Séjour (API).
+Après examen de votre dossier, nous vous informons que votre demande a été enregistrée et traitée par nos services. Votre situation a bien été prise en compte et les éléments transmis seront intégrés à votre dossier en cours.
+Conformément à la réglementation, vous serez prochainement contacté afin de finaliser la procédure (convocation en préfecture ou communication de la décision administrative). Dans l’attente, il est important de conserver les justificatifs de dépôt ou de renouvellement qui vous ont été remis. Ceux-ci tiennent lieu de preuve de la régularité de votre séjour jusqu’à la notification d’une décision officielle.
+Nous vous invitons à rester attentif aux communications de la préfecture et à consulter régulièrement vos courriels. Pour toute question complémentaire ou en cas de modification de votre situation personnelle, vous pouvez contacter le service des étrangers par courrier électronique à l’adresse suivante : [adresse générique du service] ou par téléphone aux horaires d’accueil indiqués sur notre site.
+Nous vous prions d’agréer, {prenom} {nom}, l’expression de notre considération distinguée.
+Direction des migrations et de l'intégration
+Préfecture des Yvelines</t>
+  </si>
+  <si>
+    <t>statut</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>régulier</t>
+  </si>
+  <si>
+    <t>irrégulier</t>
+  </si>
+  <si>
+    <t>étudiant</t>
+  </si>
+  <si>
+    <t>visiteur</t>
+  </si>
+  <si>
+    <t>réfugié</t>
+  </si>
+  <si>
+    <t>protégé_subsidiaire</t>
+  </si>
+  <si>
+    <t>apatride</t>
+  </si>
+  <si>
+    <t>première_demande</t>
+  </si>
+  <si>
+    <t>renouvellement</t>
+  </si>
+  <si>
+    <t>citoyen_UE</t>
+  </si>
+  <si>
+    <t>conjoint_de_français</t>
+  </si>
+  <si>
+    <t>parent_d_enfant_français_mineur</t>
+  </si>
+  <si>
+    <t>passeport_talent</t>
+  </si>
+  <si>
+    <t>entrepreneur</t>
+  </si>
+  <si>
+    <t>vls_ts</t>
+  </si>
+  <si>
+    <t>En situation régulière</t>
+  </si>
+  <si>
+    <t>En situation irrégulière</t>
+  </si>
+  <si>
+    <t>In a regular situation</t>
+  </si>
+  <si>
+    <t>In an irregular situation</t>
+  </si>
+  <si>
+    <t>Visteur</t>
+  </si>
+  <si>
+    <t>Visitor</t>
+  </si>
+  <si>
+    <t>Etudiant</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Première demande</t>
+  </si>
+  <si>
+    <t>First request</t>
+  </si>
+  <si>
+    <t>Visa long séjour valant titre de séjour</t>
+  </si>
+  <si>
+    <t>Long-stay visa equivalent to a residence permit</t>
+  </si>
+  <si>
+    <t>Renouvellement</t>
+  </si>
+  <si>
+    <t>Renewal</t>
+  </si>
+  <si>
+    <t>Citoyen de l'Union Européenne</t>
+  </si>
+  <si>
+    <t>Citizen of the European Union</t>
+  </si>
+  <si>
+    <t>Régugié</t>
+  </si>
+  <si>
+    <t>Refugee</t>
+  </si>
+  <si>
+    <t>Protégé subsidiaire</t>
+  </si>
+  <si>
+    <t>Subsidiary protection</t>
+  </si>
+  <si>
+    <t>Apatride</t>
+  </si>
+  <si>
+    <t>Conjoint de français</t>
+  </si>
+  <si>
+    <t>Parent d'enfant français mineur</t>
+  </si>
+  <si>
+    <t>Passeport Talent</t>
+  </si>
+  <si>
+    <t>Entrepreneur</t>
+  </si>
+  <si>
+    <t>Business owner</t>
+  </si>
+  <si>
+    <t>Talent Passport</t>
+  </si>
+  <si>
+    <t>Parent of a minor French child</t>
+  </si>
+  <si>
+    <t>Spouse of a French citizen</t>
+  </si>
+  <si>
+    <t>statuts</t>
+  </si>
+  <si>
+    <t>ne_sait_pas</t>
+  </si>
+  <si>
+    <t>I don't know</t>
+  </si>
+  <si>
+    <t>Je ne sais pas</t>
+  </si>
+  <si>
+    <t>atda</t>
+  </si>
+  <si>
+    <t>Votre ATDA</t>
+  </si>
+  <si>
+    <t>Attestation de Demande d’Asile</t>
+  </si>
+  <si>
+    <t>{prenom} {nom},
+Nous accusons réception de votre demande du {date_demande} concernant l'expiration de votre Attestation de Demande d’Asile (ATDA).
+Nous vous prions d’agréer, {prenom} {nom}, l’expression de notre considération distinguée.
+Direction des migrations et de l'intégration
+Préfecture des Yvelines</t>
+  </si>
+  <si>
+    <t>Your request related to your ATDA</t>
+  </si>
+  <si>
+    <t>{prenom} {nom},
+We acknowledge receipt of your request dated {date_request} concerning the expiration of your Certificate of Asylum Application (ATDA).
+Yours sincerely,
+Migration and Integration Department
+Yvelines Prefecture</t>
+  </si>
+  <si>
+    <t>difficulte_prise_rdv</t>
+  </si>
+  <si>
+    <t>DIFFICULTE DE PRISE DE RENDEZ-VOUS</t>
+  </si>
+  <si>
+    <t>Le demandeur exprime une difficulté à prendre un rendez-vous par quelque moyen que ce soit et pour quelque raison que ce soit</t>
+  </si>
+  <si>
+    <t>rdv_remise_de_titre</t>
+  </si>
+  <si>
+    <t>rdv_renouvellement_recepisse</t>
+  </si>
+  <si>
+    <t>rdv_renouvellement_titre_sejour_hors_anef</t>
+  </si>
+  <si>
+    <t>rdv_sauf_conduit</t>
+  </si>
+  <si>
+    <t>rdv_premiere_demande_titre_sejour</t>
+  </si>
+  <si>
+    <t>DIFFICULTY IN MAKING APPOINTMENTS</t>
+  </si>
+  <si>
+    <t>The applicant expresses difficulty in making an appointment by any means and for any reason.</t>
+  </si>
+  <si>
+    <t>MAKING AN APPOINTMENT DELIVERY OF DOCUMENTS</t>
+  </si>
+  <si>
+    <t>The applicant requests an appointment for the transfer of title.</t>
+  </si>
+  <si>
+    <t>MAKE AN APPOINTMENT RENEWAL RECEIPT</t>
+  </si>
+  <si>
+    <t>The applicant requests an appointment to renew their receipt.</t>
+  </si>
+  <si>
+    <t>MAKING AN APPOINTMENT TO RENEW YOUR RESIDENCE PERMIT OUTSIDE THE ANEF</t>
+  </si>
+  <si>
+    <t>The applicant requests an appointment to renew a residence permit. Their application is part of a process managed outside the ANEF website.</t>
+  </si>
+  <si>
+    <t>MAKING AN APPOINTMENT SAFE CONDUCT</t>
+  </si>
+  <si>
+    <t>The applicant requests an appointment for a safe conduct pass.</t>
+  </si>
+  <si>
+    <t>MAKING AN APPOINTMENT FIRST APPLICATION FOR A RESIDENCE PERMIT</t>
+  </si>
+  <si>
+    <t>motif_deces</t>
+  </si>
+  <si>
+    <t>Demande de sauf-conduit pour motif de décès</t>
+  </si>
+  <si>
+    <t>Request for safe passage due to death</t>
+  </si>
+  <si>
+    <t>Safe conduct is requested on grounds of death.</t>
+  </si>
+  <si>
+    <t>ACCUEIL</t>
+  </si>
+  <si>
+    <t>Veuillez vous présenter à l'accueil de la préfecture pour effectuer cette demande sur place.</t>
+  </si>
+  <si>
+    <t>Votre demande a été prise en compte. Un agent la traitera dans les plus brefs délais.</t>
+  </si>
+  <si>
+    <t>Your request has been registered. It will be processed by an agent.</t>
+  </si>
+  <si>
+    <t>Please visit [{0}]({1}).</t>
+  </si>
+  <si>
+    <t>Veuillez consulter la page [{0}]({1}).</t>
+  </si>
+  <si>
+    <t>Please go to the reception desk at the prefecture to make this request in person.</t>
+  </si>
+  <si>
+    <t>date_expiration_recepisse</t>
+  </si>
+  <si>
+    <t>Acknowledgement document expiry date (DD/MM/YYYY)</t>
+  </si>
+  <si>
+    <t>Date d'expiration du récépissé au format JJ/MM/AAAA</t>
+  </si>
+  <si>
+    <t>Acknowledgement document expiration date formatted as DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>date d'expiration du récépissé au format JJ/MM/AAAA</t>
+  </si>
+  <si>
+    <t>date_expiration_titre_sejour</t>
+  </si>
+  <si>
+    <t>Resident permit expiry date (DD/MM/YYYY)</t>
+  </si>
+  <si>
+    <t>Date d'expiration du titre de séjour au format JJ/MM/AAAA</t>
+  </si>
+  <si>
+    <t>Resident permit expiration date formatted as DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>date d'expiration du titre de séjour au format JJ/MM/AAAA</t>
+  </si>
+  <si>
+    <t>PRISE DE RENDEZ-VOUS PREMIERE DEMANDE DE TITRE DE SEJOUR</t>
+  </si>
+  <si>
+    <t>PRISE DE RENDEZ-VOUS SAUF-CONDUITS</t>
+  </si>
+  <si>
+    <t>PRISE DE RENDEZ-VOUS RENOUVELLEMENT DE TITRE DE SEJOUR HORS ANEF</t>
+  </si>
+  <si>
+    <t>PRISE DE RENDEZ-VOUS RENOUVELLEMENT RECEPISSE</t>
+  </si>
+  <si>
+    <t>PRISE DE RENDEZ-VOUS REMISE DE TITRES</t>
+  </si>
+  <si>
+    <t>pocagent78@gmail.com</t>
+  </si>
+  <si>
+    <t>Le demandeur désire prendre un rendez-vous. La raison du rendez-vous est : remise de titre</t>
+  </si>
+  <si>
+    <t>Le demandeur sollicite la prise d'un rendez-vous pour le renouvellement de son récépissé</t>
+  </si>
+  <si>
+    <t>Le demandeur demande à prendre un rendez-vous pour le renouvellement d'un titre de séjour. Sa demande s'inscrit dans un processus géré en dehors du site de l'anef</t>
+  </si>
+  <si>
+    <t>Le demandeur demande à prendre un rendez-vous pour un sauf-conduit</t>
+  </si>
+  <si>
+    <t>Le demandeur demande à prendre un rendez-vous pour une première demande de titre de séjour</t>
+  </si>
+  <si>
+    <t>dublin</t>
+  </si>
+  <si>
+    <t>Your request related to your Dublin procedure</t>
+  </si>
+  <si>
+    <t>{prenom} {nom},
+We acknowledge receipt of your request dated {date_request} concerning your Dublin procedure.
+Yours sincerely,
+Migration and Integration Department
+Yvelines Prefecture</t>
+  </si>
+  <si>
+    <t>Procédure Dublin en cours</t>
   </si>
   <si>
     <t>{prenom} {nom},
@@ -371,964 +1328,174 @@
 En espérant vous avoir apporté les éléments souhaités,</t>
   </si>
   <si>
-    <t>http://localhost:9060/DecisionService/rest/delphes/case_handling_decision</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Date de la demande au format JJ/MM/AAAA</t>
-  </si>
-  <si>
-    <t>Date d'expiration de l'API au format JJ/MM/AAAA</t>
-  </si>
-  <si>
-    <t>DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>15/09/2024</t>
-  </si>
-  <si>
-    <t>help_fr</t>
-  </si>
-  <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>https://administration-etrangers-en-france.interieur.gouv.fr/particuliers/assets/img/form-help/numero_etranger_titre_sejour.jpg</t>
-  </si>
-  <si>
-    <t>Exemple : nom@exemple.com</t>
-  </si>
-  <si>
-    <t>arrondissement</t>
-  </si>
-  <si>
-    <t>https://www.yvelines.gouv.fr/contenu/telechargement/29247/169330/file/bloc%201.2%20-%20Annexe%202_Liste%20des%20communes%20et%20arrondissements%201er%20janvier%202017.pdf</t>
-  </si>
-  <si>
-    <t>Versailles</t>
-  </si>
-  <si>
-    <t>Rambouillet</t>
-  </si>
-  <si>
-    <t>Saint-Germain-en-Laye</t>
-  </si>
-  <si>
-    <t>VERS</t>
-  </si>
-  <si>
-    <t>RAMB</t>
-  </si>
-  <si>
-    <t>SGEL</t>
-  </si>
-  <si>
-    <t>MLJ</t>
-  </si>
-  <si>
-    <t>Mantes-la-Jolie</t>
-  </si>
-  <si>
-    <t>label_en</t>
-  </si>
-  <si>
-    <t>definition_en</t>
-  </si>
-  <si>
-    <t>description_en</t>
-  </si>
-  <si>
-    <t>subject_en</t>
-  </si>
-  <si>
-    <t>body_en</t>
-  </si>
-  <si>
-    <t>help_en</t>
-  </si>
-  <si>
-    <t>system_prompt_prefix_en</t>
-  </si>
-  <si>
-    <t># Comments must be in column A before the table</t>
-  </si>
-  <si>
-    <t># Do not add a fallback intention; Such an intention called "other" will be added automatically</t>
-  </si>
-  <si>
-    <t>Le demandeur veut retourner dans son pays pour motif exceptionnel (par exemple : décès d'un proche, mariage d'un proche, naissance)</t>
-  </si>
-  <si>
-    <t>Date of application (DD/MM/YYYY)</t>
-  </si>
-  <si>
-    <t>Department of application</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Email address</t>
-  </si>
-  <si>
-    <t>Foreign‑national identification number (Numéro Étranger)</t>
-  </si>
-  <si>
-    <t>Numéro Étranger</t>
-  </si>
-  <si>
-    <t>District (arrondissement) of residence</t>
-  </si>
-  <si>
-    <t>API expiry date (DD/MM/YYYY)</t>
-  </si>
-  <si>
-    <t>Notice of risk on employment</t>
-  </si>
-  <si>
-    <t>Refugee status or subsidiary protection</t>
-  </si>
-  <si>
-    <t>Statut de réfugié ou protection subsidiaire</t>
-  </si>
-  <si>
-    <t>Arrondissement de rattachement de la commune de résidence</t>
-  </si>
-  <si>
-    <t>Admission Exceptionnelle au Séjour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attestation de Prolongation de l’Instruction, document généré depuis la plateforme ANEF </t>
-  </si>
-  <si>
-    <t>Document de Circulation pour Etranger Mineur</t>
-  </si>
-  <si>
-    <t>Admission Exceptionnelle au Séjour (Exceptional Admission to Residence)</t>
-  </si>
-  <si>
-    <t>The platform that allows users to carry out a number of procedures: validation of a Long-Stay Visa serving as a Residence Permit, applications concerning certain residence permits, application for travel documents, application for naturalisation, application for work authorisation, and change of address</t>
-  </si>
-  <si>
-    <t>Attestation de Prolongation de l’Instruction (Certificate of Extension of Processing, a document generated from the ANEF platform)</t>
-  </si>
-  <si>
-    <t>Document de Circulation pour Etranger Mineur (Travel Document for a Minor Foreigner)</t>
-  </si>
-  <si>
-    <t>EXPIRATION OF AN API (ATTESTATION DE PROLONGATION D’INSTRUCTION – EXTENSION‑OF‑PROCESSING CERTIFICATE)</t>
-  </si>
-  <si>
-    <t>FILING AN ASYLUM APPLICATION</t>
-  </si>
-  <si>
-    <t>STATUS OF MY PENDING ASYLUM APPLICATION</t>
-  </si>
-  <si>
-    <t>EXPIRATION OF AN ATDA (ASYLUM‑SEEKER CERTIFICATE)</t>
-  </si>
-  <si>
-    <t>UPDATING ATDA INFORMATION</t>
-  </si>
-  <si>
-    <t>REQUEST CONCERNING AN ONGOING DUBLIN PROCEDURE</t>
-  </si>
-  <si>
-    <t>UKRAINIAN NATIONAL REQUESTS A NEW RESIDENCE PERMIT</t>
-  </si>
-  <si>
-    <t>UKRAINIAN NATIONAL REQUESTS RENEWAL OF THEIR PERMIT</t>
-  </si>
-  <si>
-    <t>UKRAINIAN NATIONAL – OTHER REQUEST</t>
-  </si>
-  <si>
-    <t>REQUEST FROM A STUDENT IN A MOBILITY PROGRAMME</t>
-  </si>
-  <si>
-    <t>REQUEST FROM A TRAINEE ATTACHED TO THE MEDICAL PROFESSION</t>
-  </si>
-  <si>
-    <t>DIFFICULTIES WITH THE ANEF WEBSITE</t>
-  </si>
-  <si>
-    <t>CHANGE OF STATUS FROM STUDENT TO SALARIED EMPLOYEE</t>
-  </si>
-  <si>
-    <t>CHANGE OF STATUS FROM STUDENT TO JOB SEEKER</t>
-  </si>
-  <si>
-    <t>APPLICATION FOR A “PRIVATE AND FAMILY LIFE” RESIDENCE PERMIT OUTSIDE THE ANEF PORTAL</t>
-  </si>
-  <si>
-    <t>FILING A PERMIT APPLICATION AND UNABLE TO CREATE MY ANEF ACCOUNT</t>
-  </si>
-  <si>
-    <t>FILING A PERMIT APPLICATION AND ENCOUNTERING ANOTHER BLOCKAGE ON THE ANEF SITE</t>
-  </si>
-  <si>
-    <t>FILING A PERMIT APPLICATION AND ANOTHER ANEF‑RELATED PROBLEM</t>
-  </si>
-  <si>
-    <t>I WANT TO RETURN TO MY COUNTRY FOR AN EXCEPTIONAL REASON</t>
-  </si>
-  <si>
-    <t>Expiration of your API</t>
-  </si>
-  <si>
     <t>{prenom} {nom},
-We have processed your request dated {date_demande} regarding the expiration of an API</t>
-  </si>
-  <si>
-    <t>Your request for a safe‑conduct pass</t>
-  </si>
-  <si>
-    <t>{prenom} {nom},
-In response to your request, please send us copies of the following:
-the translated death certificate
-your birth certificate
-the date of the funeral
-your residence permit
-proof of address less than six months old, with “URGENT REQUEST FOR A SAFE-CONDUCT” in the subject line.
-I hope this gives you the information you were looking for.</t>
-  </si>
-  <si>
-    <t>DELPHES</t>
-  </si>
-  <si>
-    <t>app_name_fr</t>
-  </si>
-  <si>
-    <t>app_description_fr</t>
-  </si>
-  <si>
-    <t>app_name_en</t>
-  </si>
-  <si>
-    <t>app_description_en</t>
-  </si>
-  <si>
-    <t>Whether emails are sent or not</t>
-  </si>
-  <si>
-    <t>send_email</t>
-  </si>
-  <si>
-    <t>EXPIRATION OF AN API (EXTENSION‑OF‑PROCESSING CERTIFICATE)</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>text_en</t>
-  </si>
-  <si>
-    <t>text_fr</t>
-  </si>
-  <si>
-    <t>ACK</t>
-  </si>
-  <si>
-    <t>API_VA_EXPIRER_DANS_X_JOURS</t>
-  </si>
-  <si>
-    <t>L'API va expirer dans {0} jour(s)</t>
-  </si>
-  <si>
-    <t>API will expire in {0} day(s)</t>
-  </si>
-  <si>
-    <t>CONTACT_OFPRA</t>
-  </si>
-  <si>
-    <t>VISIT_PAGE</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>Markdown link of the form [text](url)</t>
-  </si>
-  <si>
-    <t>API_EXPIREE_DEPUIS_X_JOURS</t>
-  </si>
-  <si>
-    <t>API expired {0} day(s) ago</t>
-  </si>
-  <si>
-    <t>RISQUE_SUR_EMPLOI</t>
-  </si>
-  <si>
-    <t>Risk on employment</t>
-  </si>
-  <si>
-    <t>Risque sur l'emploi</t>
-  </si>
-  <si>
-    <t>ukr_demande_renouv_titre</t>
-  </si>
-  <si>
-    <t>ukr_autre_demande</t>
-  </si>
-  <si>
-    <t>ukr_demande_un_nouveau_titre</t>
-  </si>
-  <si>
-    <t>ou_en_est_ma_dem_asile_en_cours</t>
-  </si>
-  <si>
-    <t>dem_etudiant_progr_mobilite</t>
-  </si>
-  <si>
-    <t>depot_dem_titre_autre_pb_anef</t>
-  </si>
-  <si>
-    <t>dem_retour_pays_motif_except</t>
-  </si>
-  <si>
-    <t>depot_dem_titre_pb_cr_cpte_anef</t>
-  </si>
-  <si>
-    <t>diff_avec_le_site_de_l_anef</t>
-  </si>
-  <si>
-    <t>dem_en_rapport_dublin_en_cours</t>
-  </si>
-  <si>
-    <t>sollicit_titre_vpf_hors_anef</t>
-  </si>
-  <si>
-    <t>dem_stagiaire_prof_medic</t>
-  </si>
-  <si>
-    <t>chang_stat_etud_a_salarie</t>
-  </si>
-  <si>
-    <t>chang_stat_etud_a_rech_empl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aujourd'hui est le {date_demande} (JJ/MM/AAAA).  
-Vous êtes un agent en charge d'analyser des demandes en rapport avec les procédures d'Asile ou de Séjour envoyées par des demandeurs étrangers à une Préfecture de département.  </t>
-  </si>
-  <si>
-    <t>API expiration date formatted as DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>requester has refugee status or subsidiary protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today is {date_demande} (DD/MM/YYYY).  
-You are an officer responsible for reviewing applications related to asylum or residence procedures submitted by foreign applicants to a departmental prefecture in France.  </t>
-  </si>
-  <si>
-    <t>mention of risk on employment</t>
-  </si>
-  <si>
-    <t>Attestation de Demande d’Asile (Certificate of Asylum Application)</t>
-  </si>
-  <si>
-    <t>depot_dem_titre_autre_blocage_anef</t>
-  </si>
-  <si>
-    <t>Demandeurs Etrangers, Logique de Priorisation et Hiérarchisation des E-mails pour les Services  
-DELPHES est une solution innovante et efficace de prétraitement et de routage intelligent des demandes adressées par des demandeurs étrangers aux préfectures. Cette solution est construite sur le framework Athena Démarches en Confiance.</t>
-  </si>
-  <si>
-    <t>Demandeurs Etrangers, Logique de Priorisation et Hiérarchisation des E-mails pour les Services  
-DELPHES is an innovative, efficient solution for pre‑processing and intelligently routing applications submitted by foreign applicants to prefectural offices in France. The system is built on the Athena Trusted Services framework.</t>
-  </si>
-  <si>
-    <t>{departement} == 78</t>
-  </si>
-  <si>
-    <t>ANT</t>
-  </si>
-  <si>
-    <t>Antony</t>
-  </si>
-  <si>
-    <t>BOULO</t>
-  </si>
-  <si>
-    <t>Boulogne-Billancourt</t>
-  </si>
-  <si>
-    <t>NANTER</t>
-  </si>
-  <si>
-    <t>Nanterre</t>
-  </si>
-  <si>
-    <t>{departement} == 92</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>condition_python</t>
-  </si>
-  <si>
-    <t>condition_javascript</t>
-  </si>
-  <si>
-    <t>{departement} === 78</t>
-  </si>
-  <si>
-    <t>{departement} === 92</t>
-  </si>
-  <si>
-    <t>arrondissements</t>
-  </si>
-  <si>
-    <t>allowed_values_list_name</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t># If an element must be always present, us 'True in condition_python and 'true in condition_javascript</t>
-  </si>
-  <si>
-    <t>en, fr</t>
-  </si>
-  <si>
-    <t>Example : nom@example.com</t>
-  </si>
-  <si>
-    <t>sample_message_en</t>
-  </si>
-  <si>
-    <t>sample_message_fr</t>
-  </si>
-  <si>
-    <t>locales</t>
-  </si>
-  <si>
-    <t>odm</t>
-  </si>
-  <si>
-    <t>parameter1</t>
-  </si>
-  <si>
-    <t>parameter2</t>
-  </si>
-  <si>
-    <t>parameter3</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>engine_type</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>parameter2: traces/no_traces</t>
-  </si>
-  <si>
-    <t>odm traces</t>
-  </si>
-  <si>
-    <t>odm no_traces</t>
-  </si>
-  <si>
-    <t>do not rename as it is the default value for v1 legacy calls</t>
-  </si>
-  <si>
-    <t>trace_rules</t>
-  </si>
-  <si>
-    <t>no_trace_rules</t>
-  </si>
-  <si>
-    <t>DecisionEngineDelphes</t>
-  </si>
-  <si>
-    <t>runtime.apps.delphes.decision_engine</t>
-  </si>
-  <si>
-    <t>EVRY</t>
-  </si>
-  <si>
-    <t>Etampes</t>
-  </si>
-  <si>
-    <t>ETAM</t>
-  </si>
-  <si>
-    <t>PALA</t>
-  </si>
-  <si>
-    <t>Evry</t>
-  </si>
-  <si>
-    <t>Palaiseau</t>
-  </si>
-  <si>
-    <t>{departement} == 91</t>
-  </si>
-  <si>
-    <t>{departement} === 91</t>
-  </si>
-  <si>
-    <t>BOBI</t>
-  </si>
-  <si>
-    <t>RAIN</t>
-  </si>
-  <si>
-    <t>STDEN</t>
-  </si>
-  <si>
-    <t>Bobigny</t>
-  </si>
-  <si>
-    <t>Le Raincy</t>
-  </si>
-  <si>
-    <t>Saint-Denis</t>
-  </si>
-  <si>
-    <t>{departement} == 93</t>
-  </si>
-  <si>
-    <t>{departement} === 93</t>
-  </si>
-  <si>
-    <t>CRET</t>
-  </si>
-  <si>
-    <t>NOGE</t>
-  </si>
-  <si>
-    <t>LHAY</t>
-  </si>
-  <si>
-    <t>Créteil</t>
-  </si>
-  <si>
-    <t>Nogent-sur-Marne</t>
-  </si>
-  <si>
-    <t>L'Haÿ-les-Roses</t>
-  </si>
-  <si>
-    <t>{departement} == 94</t>
-  </si>
-  <si>
-    <t>{departement} === 94</t>
-  </si>
-  <si>
-    <t>data_enrichment</t>
-  </si>
-  <si>
-    <t>REQUESTER</t>
-  </si>
-  <si>
-    <t>Hello,
-I am writing on behalf of one of our members, Mr C C, whose case is rather complex and whose residence‑permit renewal application number (numéro de la demande de renouvellement de carte de séjour) is 7500000000000000003.
-He currently holds subsidiary protection status and would like to travel to his home country, on a temporary and exceptional basis, to attend his father’s funeral.
-He would also like to submit an asylum application.
-In addition, Mr C’s processing‑extension certificate will expire on 11 October 2024. He therefore wishes to obtain a new certificate so he can prove the legality of his stay while awaiting his residence permit.
-Without action in the next few days, he risks losing his job.
-Thank you in advance for your attention; please note the urgency—his employment is at stake, so this matter is very important.
-Mr C would furthermore like to file an asylum request with France.</t>
-  </si>
-  <si>
-    <t>Bonjour, 
-Je vous sollicite pour le compte de l'un de nos adhérents, Monsieur C C, dont la situation est assez complexe, et dont le numéro de la demande de renouvellement de carte de séjour est le 7500000000000000003.
-Il bénéficie actuellement du statut de protection subsidiaire et aimerait se rendre dans son pays de façon temporaire et exceptionnelle pour assister aux obsèques de son père.
-Il aimerait déposer une demande de droit d'asile.
-Par ailleurs, l'attestation de prolongation d'instruction de Monsieur C arrivera à expiration le 11 octobre 2024. Aussi, il souhaiterait obtenir une nouvelle attestation pour pouvoir justifier de la régularité de son séjour, dans l'attente de recevoir carte de séjour. 
-Sans action dans les prochains jours, il risquera de perdre son travail.
-Je vous remercie par avance et vous prie de noter l'urgence. Il risque son emploi, c'est donc très important.
-Monsieur C aimerait, par ailleurs, faire une demande d'Asile à la France.</t>
-  </si>
-  <si>
-    <t>Athena.Delphes@gmail.com</t>
-  </si>
-  <si>
-    <t>tubd yhuh fgiq hqrs</t>
-  </si>
-  <si>
-    <t>{prenom} {nom},
-Nous accusons réception de votre demande du {date_demande} concernant l’expiration de votre Autorisation Provisoire de Séjour (API).
-Après examen de votre dossier, nous vous informons que votre demande a été enregistrée et traitée par nos services. Votre situation a bien été prise en compte et les éléments transmis seront intégrés à votre dossier en cours.
-Conformément à la réglementation, vous serez prochainement contacté afin de finaliser la procédure (convocation en préfecture ou communication de la décision administrative). Dans l’attente, il est important de conserver les justificatifs de dépôt ou de renouvellement qui vous ont été remis. Ceux-ci tiennent lieu de preuve de la régularité de votre séjour jusqu’à la notification d’une décision officielle.
-Nous vous invitons à rester attentif aux communications de la préfecture et à consulter régulièrement vos courriels. Pour toute question complémentaire ou en cas de modification de votre situation personnelle, vous pouvez contacter le service des étrangers par courrier électronique à l’adresse suivante : [adresse générique du service] ou par téléphone aux horaires d’accueil indiqués sur notre site.
+Nous accusons réception de votre demande du {date_demande} à propos de tudvotre procédure Dublin en cours.
 Nous vous prions d’agréer, {prenom} {nom}, l’expression de notre considération distinguée.
 Direction des migrations et de l'intégration
 Préfecture des Yvelines</t>
   </si>
   <si>
-    <t>statut</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Statut</t>
-  </si>
-  <si>
-    <t>régulier</t>
-  </si>
-  <si>
-    <t>irrégulier</t>
-  </si>
-  <si>
-    <t>étudiant</t>
-  </si>
-  <si>
-    <t>visiteur</t>
-  </si>
-  <si>
-    <t>réfugié</t>
-  </si>
-  <si>
-    <t>protégé_subsidiaire</t>
-  </si>
-  <si>
-    <t>apatride</t>
-  </si>
-  <si>
-    <t>première_demande</t>
-  </si>
-  <si>
-    <t>renouvellement</t>
-  </si>
-  <si>
-    <t>citoyen_UE</t>
-  </si>
-  <si>
-    <t>conjoint_de_français</t>
-  </si>
-  <si>
-    <t>parent_d_enfant_français_mineur</t>
-  </si>
-  <si>
-    <t>passeport_talent</t>
-  </si>
-  <si>
-    <t>entrepreneur</t>
-  </si>
-  <si>
-    <t>vls_ts</t>
-  </si>
-  <si>
-    <t>En situation régulière</t>
-  </si>
-  <si>
-    <t>En situation irrégulière</t>
-  </si>
-  <si>
-    <t>In a regular situation</t>
-  </si>
-  <si>
-    <t>In an irregular situation</t>
-  </si>
-  <si>
-    <t>Visteur</t>
-  </si>
-  <si>
-    <t>Visitor</t>
-  </si>
-  <si>
-    <t>Etudiant</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Première demande</t>
-  </si>
-  <si>
-    <t>First request</t>
-  </si>
-  <si>
-    <t>Visa long séjour valant titre de séjour</t>
-  </si>
-  <si>
-    <t>Long-stay visa equivalent to a residence permit</t>
-  </si>
-  <si>
-    <t>Renouvellement</t>
-  </si>
-  <si>
-    <t>Renewal</t>
-  </si>
-  <si>
-    <t>Citoyen de l'Union Européenne</t>
-  </si>
-  <si>
-    <t>Citizen of the European Union</t>
-  </si>
-  <si>
-    <t>Régugié</t>
-  </si>
-  <si>
-    <t>Refugee</t>
-  </si>
-  <si>
-    <t>Protégé subsidiaire</t>
-  </si>
-  <si>
-    <t>Subsidiary protection</t>
-  </si>
-  <si>
-    <t>Apatride</t>
-  </si>
-  <si>
-    <t>Conjoint de français</t>
-  </si>
-  <si>
-    <t>Parent d'enfant français mineur</t>
-  </si>
-  <si>
-    <t>Passeport Talent</t>
-  </si>
-  <si>
-    <t>Entrepreneur</t>
-  </si>
-  <si>
-    <t>Business owner</t>
-  </si>
-  <si>
-    <t>Talent Passport</t>
-  </si>
-  <si>
-    <t>Parent of a minor French child</t>
-  </si>
-  <si>
-    <t>Spouse of a French citizen</t>
-  </si>
-  <si>
-    <t>statuts</t>
-  </si>
-  <si>
-    <t>ne_sait_pas</t>
-  </si>
-  <si>
-    <t>I don't know</t>
-  </si>
-  <si>
-    <t>Je ne sais pas</t>
-  </si>
-  <si>
-    <t>L'API expirée depuis {0} jour(s)</t>
-  </si>
-  <si>
-    <t>atda</t>
-  </si>
-  <si>
-    <t>Votre ATDA</t>
-  </si>
-  <si>
-    <t>Attestation de Demande d’Asile</t>
-  </si>
-  <si>
-    <t>{prenom} {nom},
-Nous accusons réception de votre demande du {date_demande} concernant l'expiration de votre Attestation de Demande d’Asile (ATDA).
-Nous vous prions d’agréer, {prenom} {nom}, l’expression de notre considération distinguée.
-Direction des migrations et de l'intégration
-Préfecture des Yvelines</t>
-  </si>
-  <si>
-    <t>Your request related to your ATDA</t>
-  </si>
-  <si>
-    <t>{prenom} {nom},
-We acknowledge receipt of your request dated {date_request} concerning the expiration of your Certificate of Asylum Application (ATDA).
-Yours sincerely,
-Migration and Integration Department
-Yvelines Prefecture</t>
-  </si>
-  <si>
-    <t>difficulte_prise_rdv</t>
-  </si>
-  <si>
-    <t>DIFFICULTE DE PRISE DE RENDEZ-VOUS</t>
-  </si>
-  <si>
-    <t>Le demandeur exprime une difficulté à prendre un rendez-vous par quelque moyen que ce soit et pour quelque raison que ce soit</t>
-  </si>
-  <si>
-    <t>rdv_remise_de_titre</t>
-  </si>
-  <si>
-    <t>rdv_renouvellement_recepisse</t>
-  </si>
-  <si>
-    <t>rdv_renouvellement_titre_sejour_hors_anef</t>
-  </si>
-  <si>
-    <t>rdv_sauf_conduit</t>
-  </si>
-  <si>
-    <t>rdv_premiere_demande_titre_sejour</t>
-  </si>
-  <si>
-    <t>DIFFICULTY IN MAKING APPOINTMENTS</t>
-  </si>
-  <si>
-    <t>The applicant expresses difficulty in making an appointment by any means and for any reason.</t>
-  </si>
-  <si>
-    <t>MAKING AN APPOINTMENT DELIVERY OF DOCUMENTS</t>
-  </si>
-  <si>
-    <t>The applicant requests an appointment for the transfer of title.</t>
-  </si>
-  <si>
-    <t>MAKE AN APPOINTMENT RENEWAL RECEIPT</t>
-  </si>
-  <si>
-    <t>The applicant requests an appointment to renew their receipt.</t>
-  </si>
-  <si>
-    <t>MAKING AN APPOINTMENT TO RENEW YOUR RESIDENCE PERMIT OUTSIDE THE ANEF</t>
-  </si>
-  <si>
-    <t>The applicant requests an appointment to renew a residence permit. Their application is part of a process managed outside the ANEF website.</t>
-  </si>
-  <si>
-    <t>MAKING AN APPOINTMENT SAFE CONDUCT</t>
-  </si>
-  <si>
-    <t>The applicant requests an appointment for a safe conduct pass.</t>
-  </si>
-  <si>
-    <t>MAKING AN APPOINTMENT FIRST APPLICATION FOR A RESIDENCE PERMIT</t>
-  </si>
-  <si>
-    <t>motif_deces</t>
-  </si>
-  <si>
-    <t>Demande de sauf-conduit pour motif de décès</t>
-  </si>
-  <si>
-    <t>Request for safe passage due to death</t>
-  </si>
-  <si>
-    <t>Le sauf-conduit est dmandé pour motif de décès</t>
-  </si>
-  <si>
-    <t>Safe conduct is requested on grounds of death.</t>
-  </si>
-  <si>
-    <t>ACCUEIL</t>
-  </si>
-  <si>
-    <t>Veuillez vous présenter à l'accueil de la préfecture pour effectuer cette demande sur place.</t>
-  </si>
-  <si>
-    <t>Votre demande a été prise en compte. Un agent la traitera dans les plus brefs délais.</t>
-  </si>
-  <si>
-    <t>Your request has been registered. It will be processed by an agent.</t>
-  </si>
-  <si>
-    <t>Please visit [{0}]({1}).</t>
-  </si>
-  <si>
-    <t>Veuillez consulter la page [{0}]({1}).</t>
-  </si>
-  <si>
-    <t>Veuillez vous adresser à votre contact OFPRA.</t>
-  </si>
-  <si>
-    <t>Please reach out to your contact at OFPRA.</t>
-  </si>
-  <si>
-    <t>Please go to the reception desk at the prefecture to make this request in person.</t>
-  </si>
-  <si>
-    <t>date_expiration_recepisse</t>
-  </si>
-  <si>
-    <t>Acknowledgement document expiry date (DD/MM/YYYY)</t>
-  </si>
-  <si>
-    <t>Date d'expiration du récépissé au format JJ/MM/AAAA</t>
-  </si>
-  <si>
-    <t>Acknowledgement document expiration date formatted as DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>date d'expiration du récépissé au format JJ/MM/AAAA</t>
-  </si>
-  <si>
-    <t>date_expiration_titre_sejour</t>
-  </si>
-  <si>
-    <t>Resident permit expiry date (DD/MM/YYYY)</t>
-  </si>
-  <si>
-    <t>Date d'expiration du titre de séjour au format JJ/MM/AAAA</t>
-  </si>
-  <si>
-    <t>Resident permit expiration date formatted as DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>date d'expiration du titre de séjour au format JJ/MM/AAAA</t>
-  </si>
-  <si>
-    <t>PRISE DE RENDEZ-VOUS PREMIERE DEMANDE DE TITRE DE SEJOUR</t>
-  </si>
-  <si>
-    <t>PRISE DE RENDEZ-VOUS SAUF-CONDUITS</t>
-  </si>
-  <si>
-    <t>PRISE DE RENDEZ-VOUS RENOUVELLEMENT DE TITRE DE SEJOUR HORS ANEF</t>
-  </si>
-  <si>
-    <t>PRISE DE RENDEZ-VOUS RENOUVELLEMENT RECEPISSE</t>
-  </si>
-  <si>
-    <t>PRISE DE RENDEZ-VOUS REMISE DE TITRES</t>
-  </si>
-  <si>
-    <t>pocagent78@gmail.com</t>
-  </si>
-  <si>
-    <t>Le demandeur désire prendre un rendez-vous. La raison du rendez-vous est : remise de titre</t>
-  </si>
-  <si>
-    <t>Le demandeur sollicite la prise d'un rendez-vous pour le renouvellement de son récépissé</t>
-  </si>
-  <si>
-    <t>Le demandeur demande à prendre un rendez-vous pour le renouvellement d'un titre de séjour. Sa demande s'inscrit dans un processus géré en dehors du site de l'anef</t>
-  </si>
-  <si>
-    <t>Le demandeur demande à prendre un rendez-vous pour un sauf-conduit</t>
-  </si>
-  <si>
-    <t>Le demandeur demande à prendre un rendez-vous pour une première demande de titre de séjour</t>
+    <t>asile_hebergement_urgence</t>
+  </si>
+  <si>
+    <t>aide_financiere_demandeur_asile</t>
+  </si>
+  <si>
+    <t>The applicant requests an appointment to submit an initial application for a residence permit.</t>
+  </si>
+  <si>
+    <t>The applicant wishes to return to their country for exceptional reasons (e.g. death of a relative, marriage of a relative, birth).</t>
+  </si>
+  <si>
+    <t>The applicant states that he wishes to apply for asylum.</t>
+  </si>
+  <si>
+    <t>DEMANDE D'AIDE FINANCIERE POUR UN DEMANDEUR D'ASILE</t>
+  </si>
+  <si>
+    <t>DEMANDE D'HEBERGEMENT D'URGENCE POUR UN DEMANDEUR D'ASILE</t>
+  </si>
+  <si>
+    <t>Le demandeur d'asile a besoin d'un hébergement d'urgence et en fait la demande</t>
+  </si>
+  <si>
+    <t>Le demandeur d'asile a besoin d'une aide financière et en fait la demande</t>
+  </si>
+  <si>
+    <t>APPLICATION FOR EMERGENCY ACCOMMODATION FOR AN ASYLUM SEEKER</t>
+  </si>
+  <si>
+    <t>APPLICATION FOR FINANCIAL ASSISTANCE FOR AN ASYLUM SEEKER</t>
+  </si>
+  <si>
+    <t>The asylum seeker requires emergency accommodation and has applied for it.</t>
+  </si>
+  <si>
+    <t>The asylum seeker requires financial assistance and is applying for it.</t>
+  </si>
+  <si>
+    <t>demandeur_d_asile</t>
+  </si>
+  <si>
+    <t>Demandeur d'asile</t>
+  </si>
+  <si>
+    <t>Asylum seeker</t>
+  </si>
+  <si>
+    <t>Le sauf-conduit est demandé pour motif de décès</t>
+  </si>
+  <si>
+    <t>demandeur d'asile</t>
+  </si>
+  <si>
+    <t>asylum seeker</t>
+  </si>
+  <si>
+    <t>aide_financiere_demandeur_asile asile_hebergement_urgence</t>
+  </si>
+  <si>
+    <t>RECEPISSE_VA_EXPIRER_DANS_X_JOURS</t>
+  </si>
+  <si>
+    <t>TITRE_SEJOUR_EXPIRE_DEPUIS_X_JOURS</t>
+  </si>
+  <si>
+    <t>TITRE_SEJOUR_VA_EXPIRER_DANS_X_JOURS</t>
+  </si>
+  <si>
+    <t>RELEVE_DE_L_ANEF</t>
+  </si>
+  <si>
+    <t>Please reach out to your contact at OFPRA or visit the[OFPRA website](https://www.usager.ofpra.gouv.fr/).</t>
+  </si>
+  <si>
+    <t>Veuillez vous adresser à votre contact OFPRA ou rendez-vous sur le site de l'[OFPRA](https://www.usager.ofpra.gouv.fr/).</t>
+  </si>
+  <si>
+    <t>Le récépissé va expirer dans {0} jour(s)</t>
+  </si>
+  <si>
+    <t>Le titre de séjour va expirer dans {0} jour(s)</t>
+  </si>
+  <si>
+    <t>Le titre de séjour est expiré depuis {0} jour(s)</t>
+  </si>
+  <si>
+    <t>L'API est expirée depuis {0} jour(s)</t>
+  </si>
+  <si>
+    <t>The receipt will expire in {0} day(s)</t>
+  </si>
+  <si>
+    <t>The residence permit will expire in {0} day(s)</t>
+  </si>
+  <si>
+    <t>The residence permit expired {0} day(s) ago</t>
+  </si>
+  <si>
+    <t>Relève de l'ANEF</t>
+  </si>
+  <si>
+    <t>Reports to ANEF</t>
+  </si>
+  <si>
+    <t>DEMANDEUR_D_ASILE</t>
+  </si>
+  <si>
+    <t>Est demadeur d'asile</t>
+  </si>
+  <si>
+    <t>Is an asylum seeker</t>
+  </si>
+  <si>
+    <t>STATUT</t>
+  </si>
+  <si>
+    <t>A déclaré le statut : {0}</t>
+  </si>
+  <si>
+    <t>Status is {0}</t>
+  </si>
+  <si>
+    <t>Si vous êtes sans solution, appeler le 115 pour trouver un hébergement d'urgence (appel gratuit).</t>
+  </si>
+  <si>
+    <t>If you are unable to find a solution, call 115 to find emergency accommodation (free call).</t>
+  </si>
+  <si>
+    <t>APPEL_115</t>
+  </si>
+  <si>
+    <t>AUCUNE_SOLUTION</t>
+  </si>
+  <si>
+    <t>La préfecture n'a aucune solution à vous proposer et nous en sommes désolés.</t>
+  </si>
+  <si>
+    <t>The prefecture has no solution to offer you, and we are sorry about that.</t>
+  </si>
+  <si>
+    <t>DEMANDE DE DUPLICATA</t>
+  </si>
+  <si>
+    <t>Le demandeur a besoin d'un duplicata</t>
+  </si>
+  <si>
+    <t>REQUEST FOR DUPLICATE</t>
+  </si>
+  <si>
+    <t>The applicant requires a duplicate copy.</t>
+  </si>
+  <si>
+    <t>duplicata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1377,6 +1544,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1415,7 +1594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1449,13 +1628,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1508,22 +1701,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{ACAF409D-F060-9D40-B22A-7C31FDA09E67}"/>
     <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1819,15 +2025,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40884519-E9E2-4702-AA20-B46B229B9942}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.5" style="1" customWidth="1"/>
@@ -1837,12 +2043,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1855,10 +2061,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
@@ -1872,10 +2078,10 @@
         <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -1889,10 +2095,10 @@
         <v>44</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>156</v>
+        <v>412</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
@@ -1903,13 +2109,13 @@
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -1923,10 +2129,10 @@
         <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -1940,10 +2146,10 @@
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -1954,13 +2160,13 @@
     </row>
     <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -1971,13 +2177,13 @@
     </row>
     <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
@@ -1988,13 +2194,13 @@
     </row>
     <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
@@ -2005,13 +2211,13 @@
     </row>
     <row r="14" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>16</v>
@@ -2022,13 +2228,13 @@
     </row>
     <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>17</v>
@@ -2039,13 +2245,13 @@
     </row>
     <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>18</v>
@@ -2056,13 +2262,13 @@
     </row>
     <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>19</v>
@@ -2073,13 +2279,13 @@
     </row>
     <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>20</v>
@@ -2090,13 +2296,13 @@
     </row>
     <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>21</v>
@@ -2107,13 +2313,13 @@
     </row>
     <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>22</v>
@@ -2124,13 +2330,13 @@
     </row>
     <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>23</v>
@@ -2141,13 +2347,13 @@
     </row>
     <row r="22" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>24</v>
@@ -2158,13 +2364,13 @@
     </row>
     <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>25</v>
@@ -2175,121 +2381,172 @@
     </row>
     <row r="24" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>173</v>
+        <v>411</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="E25" s="31" t="s">
+      <c r="D26" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="B27" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D26" s="31" t="s">
+      <c r="B28" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="E29" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="E26" s="31" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>396</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>406</v>
+        <v>410</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -2338,79 +2595,79 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2471,7 +2728,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -2480,7 +2737,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -2507,7 +2764,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -2522,13 +2779,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2542,15 +2799,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAADDD23-DB13-4EC8-8D22-BE27FCA5478C}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="101" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="101" customWidth="1"/>
@@ -2561,10 +2819,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>83</v>
@@ -2578,50 +2836,67 @@
         <v>99</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>350</v>
+    </row>
+    <row r="5" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -2669,288 +2944,288 @@
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2977,7 +3252,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2985,288 +3260,288 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="22" t="s">
         <v>286</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3306,19 +3581,19 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -3364,55 +3639,55 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="240" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="240" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -3424,146 +3699,238 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ED06FD-CD59-4243-896C-6A0821CD9182}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>346</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>201</v>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A280385-38F0-446C-9432-C0DF8BDF752B}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.83203125" customWidth="1"/>
-    <col min="3" max="3" width="73" customWidth="1"/>
+    <col min="2" max="2" width="69.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>195</v>
+      <c r="D1" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="B5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>378</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3573,10 +3940,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF16B1B1-A6B4-4B56-9813-CCF1B731EDAC}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView topLeftCell="I1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3603,28 +3970,28 @@
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>67</v>
@@ -3639,7 +4006,7 @@
         <v>72</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>7</v>
@@ -3656,52 +4023,52 @@
         <v>68</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>85</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -3712,25 +4079,25 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>71</v>
@@ -3739,22 +4106,22 @@
         <v>85</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3765,49 +4132,49 @@
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -3818,49 +4185,49 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>80</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -3871,102 +4238,102 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>90</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3977,49 +4344,49 @@
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -4027,43 +4394,43 @@
         <v>66</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>109</v>
-      </c>
       <c r="I9" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>43</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>48</v>
@@ -4072,7 +4439,7 @@
         <v>76</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -4083,40 +4450,40 @@
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>234</v>
-      </c>
       <c r="M10" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>42</v>
@@ -4125,7 +4492,7 @@
         <v>76</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -4136,40 +4503,40 @@
         <v>5</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>98</v>
@@ -4178,204 +4545,247 @@
         <v>76</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>298</v>
-      </c>
       <c r="K12" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D13" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="N13" t="s">
         <v>373</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="N13" t="s">
-        <v>376</v>
-      </c>
       <c r="O13" s="26" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>357</v>
+        <v>232</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>355</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q15" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>233</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -4435,10 +4845,10 @@
     </row>
     <row r="2" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -4447,7 +4857,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -4477,7 +4887,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>58</v>
@@ -4488,10 +4898,10 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -4499,7 +4909,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
@@ -4510,10 +4920,10 @@
         <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -4521,10 +4931,10 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -4532,10 +4942,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/runtime_dev/apps/delphes/delphes.xlsx
+++ b/runtime_dev/apps/delphes/delphes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Documents/Dev/Athena/trusted-service/runtime_dev/apps/delphes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BDC718-163E-264C-8597-B4C5ADA58B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C84CBA-62B5-E34D-B574-C03E9F8E1E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18860" tabRatio="973" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18860" tabRatio="973" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP &amp; MODEL" sheetId="25" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="463">
   <si>
     <t>Parameter</t>
   </si>
@@ -960,362 +960,511 @@
     <t>tubd yhuh fgiq hqrs</t>
   </si>
   <si>
+    <t>statut</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>régulier</t>
+  </si>
+  <si>
+    <t>irrégulier</t>
+  </si>
+  <si>
+    <t>étudiant</t>
+  </si>
+  <si>
+    <t>visiteur</t>
+  </si>
+  <si>
+    <t>réfugié</t>
+  </si>
+  <si>
+    <t>protégé_subsidiaire</t>
+  </si>
+  <si>
+    <t>apatride</t>
+  </si>
+  <si>
+    <t>première_demande</t>
+  </si>
+  <si>
+    <t>renouvellement</t>
+  </si>
+  <si>
+    <t>citoyen_UE</t>
+  </si>
+  <si>
+    <t>conjoint_de_français</t>
+  </si>
+  <si>
+    <t>parent_d_enfant_français_mineur</t>
+  </si>
+  <si>
+    <t>passeport_talent</t>
+  </si>
+  <si>
+    <t>entrepreneur</t>
+  </si>
+  <si>
+    <t>vls_ts</t>
+  </si>
+  <si>
+    <t>En situation régulière</t>
+  </si>
+  <si>
+    <t>In a regular situation</t>
+  </si>
+  <si>
+    <t>In an irregular situation</t>
+  </si>
+  <si>
+    <t>Visteur</t>
+  </si>
+  <si>
+    <t>Visitor</t>
+  </si>
+  <si>
+    <t>Etudiant</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Première demande</t>
+  </si>
+  <si>
+    <t>First request</t>
+  </si>
+  <si>
+    <t>Visa long séjour valant titre de séjour</t>
+  </si>
+  <si>
+    <t>Long-stay visa equivalent to a residence permit</t>
+  </si>
+  <si>
+    <t>Renouvellement</t>
+  </si>
+  <si>
+    <t>Renewal</t>
+  </si>
+  <si>
+    <t>Citoyen de l'Union Européenne</t>
+  </si>
+  <si>
+    <t>Citizen of the European Union</t>
+  </si>
+  <si>
+    <t>Régugié</t>
+  </si>
+  <si>
+    <t>Refugee</t>
+  </si>
+  <si>
+    <t>Protégé subsidiaire</t>
+  </si>
+  <si>
+    <t>Subsidiary protection</t>
+  </si>
+  <si>
+    <t>Apatride</t>
+  </si>
+  <si>
+    <t>Conjoint de français</t>
+  </si>
+  <si>
+    <t>Parent d'enfant français mineur</t>
+  </si>
+  <si>
+    <t>Passeport Talent</t>
+  </si>
+  <si>
+    <t>Entrepreneur</t>
+  </si>
+  <si>
+    <t>Business owner</t>
+  </si>
+  <si>
+    <t>Talent Passport</t>
+  </si>
+  <si>
+    <t>Parent of a minor French child</t>
+  </si>
+  <si>
+    <t>Spouse of a French citizen</t>
+  </si>
+  <si>
+    <t>statuts</t>
+  </si>
+  <si>
+    <t>ne_sait_pas</t>
+  </si>
+  <si>
+    <t>I don't know</t>
+  </si>
+  <si>
+    <t>Je ne sais pas</t>
+  </si>
+  <si>
+    <t>atda</t>
+  </si>
+  <si>
+    <t>Votre ATDA</t>
+  </si>
+  <si>
+    <t>Attestation de Demande d’Asile</t>
+  </si>
+  <si>
+    <t>Your request related to your ATDA</t>
+  </si>
+  <si>
+    <t>{prenom} {nom},
+We acknowledge receipt of your request dated {date_request} concerning the expiration of your Certificate of Asylum Application (ATDA).
+Yours sincerely,
+Migration and Integration Department
+Yvelines Prefecture</t>
+  </si>
+  <si>
+    <t>difficulte_prise_rdv</t>
+  </si>
+  <si>
+    <t>DIFFICULTE DE PRISE DE RENDEZ-VOUS</t>
+  </si>
+  <si>
+    <t>Le demandeur exprime une difficulté à prendre un rendez-vous par quelque moyen que ce soit et pour quelque raison que ce soit</t>
+  </si>
+  <si>
+    <t>rdv_remise_de_titre</t>
+  </si>
+  <si>
+    <t>rdv_renouvellement_recepisse</t>
+  </si>
+  <si>
+    <t>rdv_renouvellement_titre_sejour_hors_anef</t>
+  </si>
+  <si>
+    <t>rdv_sauf_conduit</t>
+  </si>
+  <si>
+    <t>rdv_premiere_demande_titre_sejour</t>
+  </si>
+  <si>
+    <t>DIFFICULTY IN MAKING APPOINTMENTS</t>
+  </si>
+  <si>
+    <t>The applicant expresses difficulty in making an appointment by any means and for any reason.</t>
+  </si>
+  <si>
+    <t>MAKING AN APPOINTMENT DELIVERY OF DOCUMENTS</t>
+  </si>
+  <si>
+    <t>The applicant requests an appointment for the transfer of title.</t>
+  </si>
+  <si>
+    <t>MAKE AN APPOINTMENT RENEWAL RECEIPT</t>
+  </si>
+  <si>
+    <t>The applicant requests an appointment to renew their receipt.</t>
+  </si>
+  <si>
+    <t>MAKING AN APPOINTMENT TO RENEW YOUR RESIDENCE PERMIT OUTSIDE THE ANEF</t>
+  </si>
+  <si>
+    <t>The applicant requests an appointment to renew a residence permit. Their application is part of a process managed outside the ANEF website.</t>
+  </si>
+  <si>
+    <t>MAKING AN APPOINTMENT SAFE CONDUCT</t>
+  </si>
+  <si>
+    <t>The applicant requests an appointment for a safe conduct pass.</t>
+  </si>
+  <si>
+    <t>MAKING AN APPOINTMENT FIRST APPLICATION FOR A RESIDENCE PERMIT</t>
+  </si>
+  <si>
+    <t>motif_deces</t>
+  </si>
+  <si>
+    <t>Demande de sauf-conduit pour motif de décès</t>
+  </si>
+  <si>
+    <t>Request for safe passage due to death</t>
+  </si>
+  <si>
+    <t>Safe conduct is requested on grounds of death.</t>
+  </si>
+  <si>
+    <t>ACCUEIL</t>
+  </si>
+  <si>
+    <t>Veuillez vous présenter à l'accueil de la préfecture pour effectuer cette demande sur place.</t>
+  </si>
+  <si>
+    <t>Votre demande a été prise en compte. Un agent la traitera dans les plus brefs délais.</t>
+  </si>
+  <si>
+    <t>Your request has been registered. It will be processed by an agent.</t>
+  </si>
+  <si>
+    <t>Please visit [{0}]({1}).</t>
+  </si>
+  <si>
+    <t>Veuillez consulter la page [{0}]({1}).</t>
+  </si>
+  <si>
+    <t>Please go to the reception desk at the prefecture to make this request in person.</t>
+  </si>
+  <si>
+    <t>date_expiration_recepisse</t>
+  </si>
+  <si>
+    <t>Acknowledgement document expiry date (DD/MM/YYYY)</t>
+  </si>
+  <si>
+    <t>Date d'expiration du récépissé au format JJ/MM/AAAA</t>
+  </si>
+  <si>
+    <t>Acknowledgement document expiration date formatted as DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>date d'expiration du récépissé au format JJ/MM/AAAA</t>
+  </si>
+  <si>
+    <t>date_expiration_titre_sejour</t>
+  </si>
+  <si>
+    <t>Resident permit expiry date (DD/MM/YYYY)</t>
+  </si>
+  <si>
+    <t>Date d'expiration du titre de séjour au format JJ/MM/AAAA</t>
+  </si>
+  <si>
+    <t>Resident permit expiration date formatted as DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>date d'expiration du titre de séjour au format JJ/MM/AAAA</t>
+  </si>
+  <si>
+    <t>PRISE DE RENDEZ-VOUS PREMIERE DEMANDE DE TITRE DE SEJOUR</t>
+  </si>
+  <si>
+    <t>PRISE DE RENDEZ-VOUS SAUF-CONDUITS</t>
+  </si>
+  <si>
+    <t>PRISE DE RENDEZ-VOUS RENOUVELLEMENT DE TITRE DE SEJOUR HORS ANEF</t>
+  </si>
+  <si>
+    <t>PRISE DE RENDEZ-VOUS RENOUVELLEMENT RECEPISSE</t>
+  </si>
+  <si>
+    <t>PRISE DE RENDEZ-VOUS REMISE DE TITRES</t>
+  </si>
+  <si>
+    <t>pocagent78@gmail.com</t>
+  </si>
+  <si>
+    <t>Le demandeur désire prendre un rendez-vous. La raison du rendez-vous est : remise de titre</t>
+  </si>
+  <si>
+    <t>Le demandeur sollicite la prise d'un rendez-vous pour le renouvellement de son récépissé</t>
+  </si>
+  <si>
+    <t>Le demandeur demande à prendre un rendez-vous pour le renouvellement d'un titre de séjour. Sa demande s'inscrit dans un processus géré en dehors du site de l'anef</t>
+  </si>
+  <si>
+    <t>Le demandeur demande à prendre un rendez-vous pour un sauf-conduit</t>
+  </si>
+  <si>
+    <t>Le demandeur demande à prendre un rendez-vous pour une première demande de titre de séjour</t>
+  </si>
+  <si>
+    <t>dublin</t>
+  </si>
+  <si>
+    <t>Your request related to your Dublin procedure</t>
+  </si>
+  <si>
+    <t>{prenom} {nom},
+We acknowledge receipt of your request dated {date_request} concerning your Dublin procedure.
+Yours sincerely,
+Migration and Integration Department
+Yvelines Prefecture</t>
+  </si>
+  <si>
+    <t>Procédure Dublin en cours</t>
+  </si>
+  <si>
+    <t>asile_hebergement_urgence</t>
+  </si>
+  <si>
+    <t>aide_financiere_demandeur_asile</t>
+  </si>
+  <si>
+    <t>The applicant requests an appointment to submit an initial application for a residence permit.</t>
+  </si>
+  <si>
+    <t>The applicant wishes to return to their country for exceptional reasons (e.g. death of a relative, marriage of a relative, birth).</t>
+  </si>
+  <si>
+    <t>The applicant states that he wishes to apply for asylum.</t>
+  </si>
+  <si>
+    <t>DEMANDE D'AIDE FINANCIERE POUR UN DEMANDEUR D'ASILE</t>
+  </si>
+  <si>
+    <t>DEMANDE D'HEBERGEMENT D'URGENCE POUR UN DEMANDEUR D'ASILE</t>
+  </si>
+  <si>
+    <t>Le demandeur d'asile a besoin d'un hébergement d'urgence et en fait la demande</t>
+  </si>
+  <si>
+    <t>Le demandeur d'asile a besoin d'une aide financière et en fait la demande</t>
+  </si>
+  <si>
+    <t>APPLICATION FOR EMERGENCY ACCOMMODATION FOR AN ASYLUM SEEKER</t>
+  </si>
+  <si>
+    <t>APPLICATION FOR FINANCIAL ASSISTANCE FOR AN ASYLUM SEEKER</t>
+  </si>
+  <si>
+    <t>The asylum seeker requires emergency accommodation and has applied for it.</t>
+  </si>
+  <si>
+    <t>The asylum seeker requires financial assistance and is applying for it.</t>
+  </si>
+  <si>
+    <t>demandeur_d_asile</t>
+  </si>
+  <si>
+    <t>Demandeur d'asile</t>
+  </si>
+  <si>
+    <t>Asylum seeker</t>
+  </si>
+  <si>
+    <t>Le sauf-conduit est demandé pour motif de décès</t>
+  </si>
+  <si>
+    <t>demandeur d'asile</t>
+  </si>
+  <si>
+    <t>asylum seeker</t>
+  </si>
+  <si>
+    <t>aide_financiere_demandeur_asile asile_hebergement_urgence</t>
+  </si>
+  <si>
+    <t>RECEPISSE_VA_EXPIRER_DANS_X_JOURS</t>
+  </si>
+  <si>
+    <t>TITRE_SEJOUR_EXPIRE_DEPUIS_X_JOURS</t>
+  </si>
+  <si>
+    <t>TITRE_SEJOUR_VA_EXPIRER_DANS_X_JOURS</t>
+  </si>
+  <si>
+    <t>RELEVE_DE_L_ANEF</t>
+  </si>
+  <si>
+    <t>Please reach out to your contact at OFPRA or visit the[OFPRA website](https://www.usager.ofpra.gouv.fr/).</t>
+  </si>
+  <si>
+    <t>Veuillez vous adresser à votre contact OFPRA ou rendez-vous sur le site de l'[OFPRA](https://www.usager.ofpra.gouv.fr/).</t>
+  </si>
+  <si>
+    <t>Le récépissé va expirer dans {0} jour(s)</t>
+  </si>
+  <si>
+    <t>Le titre de séjour va expirer dans {0} jour(s)</t>
+  </si>
+  <si>
+    <t>Le titre de séjour est expiré depuis {0} jour(s)</t>
+  </si>
+  <si>
+    <t>L'API est expirée depuis {0} jour(s)</t>
+  </si>
+  <si>
+    <t>The receipt will expire in {0} day(s)</t>
+  </si>
+  <si>
+    <t>The residence permit will expire in {0} day(s)</t>
+  </si>
+  <si>
+    <t>The residence permit expired {0} day(s) ago</t>
+  </si>
+  <si>
+    <t>Relève de l'ANEF</t>
+  </si>
+  <si>
+    <t>Reports to ANEF</t>
+  </si>
+  <si>
+    <t>DEMANDEUR_D_ASILE</t>
+  </si>
+  <si>
+    <t>Est demadeur d'asile</t>
+  </si>
+  <si>
+    <t>Is an asylum seeker</t>
+  </si>
+  <si>
+    <t>STATUT</t>
+  </si>
+  <si>
+    <t>A déclaré le statut : {0}</t>
+  </si>
+  <si>
+    <t>Status is {0}</t>
+  </si>
+  <si>
+    <t>Si vous êtes sans solution, appeler le 115 pour trouver un hébergement d'urgence (appel gratuit).</t>
+  </si>
+  <si>
+    <t>If you are unable to find a solution, call 115 to find emergency accommodation (free call).</t>
+  </si>
+  <si>
+    <t>APPEL_115</t>
+  </si>
+  <si>
+    <t>AUCUNE_SOLUTION</t>
+  </si>
+  <si>
+    <t>La préfecture n'a aucune solution à vous proposer et nous en sommes désolés.</t>
+  </si>
+  <si>
+    <t>The prefecture has no solution to offer you, and we are sorry about that.</t>
+  </si>
+  <si>
+    <t>DEMANDE DE DUPLICATA</t>
+  </si>
+  <si>
+    <t>Le demandeur a besoin d'un duplicata</t>
+  </si>
+  <si>
+    <t>REQUEST FOR DUPLICATE</t>
+  </si>
+  <si>
+    <t>The applicant requires a duplicate copy.</t>
+  </si>
+  <si>
+    <t>duplicata</t>
+  </si>
+  <si>
+    <t>En situation irrégulière (sans titre de séjour valable)</t>
+  </si>
+  <si>
     <t>{prenom} {nom},
 Nous accusons réception de votre demande du {date_demande} concernant l’expiration de votre Autorisation Provisoire de Séjour (API).
 Après examen de votre dossier, nous vous informons que votre demande a été enregistrée et traitée par nos services. Votre situation a bien été prise en compte et les éléments transmis seront intégrés à votre dossier en cours.
 Conformément à la réglementation, vous serez prochainement contacté afin de finaliser la procédure (convocation en préfecture ou communication de la décision administrative). Dans l’attente, il est important de conserver les justificatifs de dépôt ou de renouvellement qui vous ont été remis. Ceux-ci tiennent lieu de preuve de la régularité de votre séjour jusqu’à la notification d’une décision officielle.
 Nous vous invitons à rester attentif aux communications de la préfecture et à consulter régulièrement vos courriels. Pour toute question complémentaire ou en cas de modification de votre situation personnelle, vous pouvez contacter le service des étrangers par courrier électronique à l’adresse suivante : [adresse générique du service] ou par téléphone aux horaires d’accueil indiqués sur notre site.
 Nous vous prions d’agréer, {prenom} {nom}, l’expression de notre considération distinguée.
-Direction des migrations et de l'intégration
-Préfecture des Yvelines</t>
-  </si>
-  <si>
-    <t>statut</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Statut</t>
-  </si>
-  <si>
-    <t>régulier</t>
-  </si>
-  <si>
-    <t>irrégulier</t>
-  </si>
-  <si>
-    <t>étudiant</t>
-  </si>
-  <si>
-    <t>visiteur</t>
-  </si>
-  <si>
-    <t>réfugié</t>
-  </si>
-  <si>
-    <t>protégé_subsidiaire</t>
-  </si>
-  <si>
-    <t>apatride</t>
-  </si>
-  <si>
-    <t>première_demande</t>
-  </si>
-  <si>
-    <t>renouvellement</t>
-  </si>
-  <si>
-    <t>citoyen_UE</t>
-  </si>
-  <si>
-    <t>conjoint_de_français</t>
-  </si>
-  <si>
-    <t>parent_d_enfant_français_mineur</t>
-  </si>
-  <si>
-    <t>passeport_talent</t>
-  </si>
-  <si>
-    <t>entrepreneur</t>
-  </si>
-  <si>
-    <t>vls_ts</t>
-  </si>
-  <si>
-    <t>En situation régulière</t>
-  </si>
-  <si>
-    <t>En situation irrégulière</t>
-  </si>
-  <si>
-    <t>In a regular situation</t>
-  </si>
-  <si>
-    <t>In an irregular situation</t>
-  </si>
-  <si>
-    <t>Visteur</t>
-  </si>
-  <si>
-    <t>Visitor</t>
-  </si>
-  <si>
-    <t>Etudiant</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Première demande</t>
-  </si>
-  <si>
-    <t>First request</t>
-  </si>
-  <si>
-    <t>Visa long séjour valant titre de séjour</t>
-  </si>
-  <si>
-    <t>Long-stay visa equivalent to a residence permit</t>
-  </si>
-  <si>
-    <t>Renouvellement</t>
-  </si>
-  <si>
-    <t>Renewal</t>
-  </si>
-  <si>
-    <t>Citoyen de l'Union Européenne</t>
-  </si>
-  <si>
-    <t>Citizen of the European Union</t>
-  </si>
-  <si>
-    <t>Régugié</t>
-  </si>
-  <si>
-    <t>Refugee</t>
-  </si>
-  <si>
-    <t>Protégé subsidiaire</t>
-  </si>
-  <si>
-    <t>Subsidiary protection</t>
-  </si>
-  <si>
-    <t>Apatride</t>
-  </si>
-  <si>
-    <t>Conjoint de français</t>
-  </si>
-  <si>
-    <t>Parent d'enfant français mineur</t>
-  </si>
-  <si>
-    <t>Passeport Talent</t>
-  </si>
-  <si>
-    <t>Entrepreneur</t>
-  </si>
-  <si>
-    <t>Business owner</t>
-  </si>
-  <si>
-    <t>Talent Passport</t>
-  </si>
-  <si>
-    <t>Parent of a minor French child</t>
-  </si>
-  <si>
-    <t>Spouse of a French citizen</t>
-  </si>
-  <si>
-    <t>statuts</t>
-  </si>
-  <si>
-    <t>ne_sait_pas</t>
-  </si>
-  <si>
-    <t>I don't know</t>
-  </si>
-  <si>
-    <t>Je ne sais pas</t>
-  </si>
-  <si>
-    <t>atda</t>
-  </si>
-  <si>
-    <t>Votre ATDA</t>
-  </si>
-  <si>
-    <t>Attestation de Demande d’Asile</t>
-  </si>
-  <si>
-    <t>{prenom} {nom},
-Nous accusons réception de votre demande du {date_demande} concernant l'expiration de votre Attestation de Demande d’Asile (ATDA).
-Nous vous prions d’agréer, {prenom} {nom}, l’expression de notre considération distinguée.
-Direction des migrations et de l'intégration
-Préfecture des Yvelines</t>
-  </si>
-  <si>
-    <t>Your request related to your ATDA</t>
-  </si>
-  <si>
-    <t>{prenom} {nom},
-We acknowledge receipt of your request dated {date_request} concerning the expiration of your Certificate of Asylum Application (ATDA).
-Yours sincerely,
-Migration and Integration Department
-Yvelines Prefecture</t>
-  </si>
-  <si>
-    <t>difficulte_prise_rdv</t>
-  </si>
-  <si>
-    <t>DIFFICULTE DE PRISE DE RENDEZ-VOUS</t>
-  </si>
-  <si>
-    <t>Le demandeur exprime une difficulté à prendre un rendez-vous par quelque moyen que ce soit et pour quelque raison que ce soit</t>
-  </si>
-  <si>
-    <t>rdv_remise_de_titre</t>
-  </si>
-  <si>
-    <t>rdv_renouvellement_recepisse</t>
-  </si>
-  <si>
-    <t>rdv_renouvellement_titre_sejour_hors_anef</t>
-  </si>
-  <si>
-    <t>rdv_sauf_conduit</t>
-  </si>
-  <si>
-    <t>rdv_premiere_demande_titre_sejour</t>
-  </si>
-  <si>
-    <t>DIFFICULTY IN MAKING APPOINTMENTS</t>
-  </si>
-  <si>
-    <t>The applicant expresses difficulty in making an appointment by any means and for any reason.</t>
-  </si>
-  <si>
-    <t>MAKING AN APPOINTMENT DELIVERY OF DOCUMENTS</t>
-  </si>
-  <si>
-    <t>The applicant requests an appointment for the transfer of title.</t>
-  </si>
-  <si>
-    <t>MAKE AN APPOINTMENT RENEWAL RECEIPT</t>
-  </si>
-  <si>
-    <t>The applicant requests an appointment to renew their receipt.</t>
-  </si>
-  <si>
-    <t>MAKING AN APPOINTMENT TO RENEW YOUR RESIDENCE PERMIT OUTSIDE THE ANEF</t>
-  </si>
-  <si>
-    <t>The applicant requests an appointment to renew a residence permit. Their application is part of a process managed outside the ANEF website.</t>
-  </si>
-  <si>
-    <t>MAKING AN APPOINTMENT SAFE CONDUCT</t>
-  </si>
-  <si>
-    <t>The applicant requests an appointment for a safe conduct pass.</t>
-  </si>
-  <si>
-    <t>MAKING AN APPOINTMENT FIRST APPLICATION FOR A RESIDENCE PERMIT</t>
-  </si>
-  <si>
-    <t>motif_deces</t>
-  </si>
-  <si>
-    <t>Demande de sauf-conduit pour motif de décès</t>
-  </si>
-  <si>
-    <t>Request for safe passage due to death</t>
-  </si>
-  <si>
-    <t>Safe conduct is requested on grounds of death.</t>
-  </si>
-  <si>
-    <t>ACCUEIL</t>
-  </si>
-  <si>
-    <t>Veuillez vous présenter à l'accueil de la préfecture pour effectuer cette demande sur place.</t>
-  </si>
-  <si>
-    <t>Votre demande a été prise en compte. Un agent la traitera dans les plus brefs délais.</t>
-  </si>
-  <si>
-    <t>Your request has been registered. It will be processed by an agent.</t>
-  </si>
-  <si>
-    <t>Please visit [{0}]({1}).</t>
-  </si>
-  <si>
-    <t>Veuillez consulter la page [{0}]({1}).</t>
-  </si>
-  <si>
-    <t>Please go to the reception desk at the prefecture to make this request in person.</t>
-  </si>
-  <si>
-    <t>date_expiration_recepisse</t>
-  </si>
-  <si>
-    <t>Acknowledgement document expiry date (DD/MM/YYYY)</t>
-  </si>
-  <si>
-    <t>Date d'expiration du récépissé au format JJ/MM/AAAA</t>
-  </si>
-  <si>
-    <t>Acknowledgement document expiration date formatted as DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>date d'expiration du récépissé au format JJ/MM/AAAA</t>
-  </si>
-  <si>
-    <t>date_expiration_titre_sejour</t>
-  </si>
-  <si>
-    <t>Resident permit expiry date (DD/MM/YYYY)</t>
-  </si>
-  <si>
-    <t>Date d'expiration du titre de séjour au format JJ/MM/AAAA</t>
-  </si>
-  <si>
-    <t>Resident permit expiration date formatted as DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>date d'expiration du titre de séjour au format JJ/MM/AAAA</t>
-  </si>
-  <si>
-    <t>PRISE DE RENDEZ-VOUS PREMIERE DEMANDE DE TITRE DE SEJOUR</t>
-  </si>
-  <si>
-    <t>PRISE DE RENDEZ-VOUS SAUF-CONDUITS</t>
-  </si>
-  <si>
-    <t>PRISE DE RENDEZ-VOUS RENOUVELLEMENT DE TITRE DE SEJOUR HORS ANEF</t>
-  </si>
-  <si>
-    <t>PRISE DE RENDEZ-VOUS RENOUVELLEMENT RECEPISSE</t>
-  </si>
-  <si>
-    <t>PRISE DE RENDEZ-VOUS REMISE DE TITRES</t>
-  </si>
-  <si>
-    <t>pocagent78@gmail.com</t>
-  </si>
-  <si>
-    <t>Le demandeur désire prendre un rendez-vous. La raison du rendez-vous est : remise de titre</t>
-  </si>
-  <si>
-    <t>Le demandeur sollicite la prise d'un rendez-vous pour le renouvellement de son récépissé</t>
-  </si>
-  <si>
-    <t>Le demandeur demande à prendre un rendez-vous pour le renouvellement d'un titre de séjour. Sa demande s'inscrit dans un processus géré en dehors du site de l'anef</t>
-  </si>
-  <si>
-    <t>Le demandeur demande à prendre un rendez-vous pour un sauf-conduit</t>
-  </si>
-  <si>
-    <t>Le demandeur demande à prendre un rendez-vous pour une première demande de titre de séjour</t>
-  </si>
-  <si>
-    <t>dublin</t>
-  </si>
-  <si>
-    <t>Your request related to your Dublin procedure</t>
-  </si>
-  <si>
-    <t>{prenom} {nom},
-We acknowledge receipt of your request dated {date_request} concerning your Dublin procedure.
-Yours sincerely,
-Migration and Integration Department
-Yvelines Prefecture</t>
-  </si>
-  <si>
-    <t>Procédure Dublin en cours</t>
+Préfecture des Yvelines
+Direction des migrations et de l'intégration</t>
   </si>
   <si>
     <t>{prenom} {nom},
@@ -1325,170 +1474,32 @@
 - la date des funérailles
 - votre carte de séjour
 - d'un justificatif de domicile de moins de 6 mois en indiquant en objet URGENT DEMANDE DE SAUF CONDUIT.
-En espérant vous avoir apporté les éléments souhaités,</t>
+En espérant vous avoir apporté les éléments souhaités,
+Préfecture des Yvelines
+Direction des migrations et de l'intégration</t>
   </si>
   <si>
     <t>{prenom} {nom},
-Nous accusons réception de votre demande du {date_demande} à propos de tudvotre procédure Dublin en cours.
+Nous accusons réception de votre demande du {date_demande} concernant l'expiration de votre Attestation de Demande d’Asile (ATDA).
 Nous vous prions d’agréer, {prenom} {nom}, l’expression de notre considération distinguée.
-Direction des migrations et de l'intégration
-Préfecture des Yvelines</t>
-  </si>
-  <si>
-    <t>asile_hebergement_urgence</t>
-  </si>
-  <si>
-    <t>aide_financiere_demandeur_asile</t>
-  </si>
-  <si>
-    <t>The applicant requests an appointment to submit an initial application for a residence permit.</t>
-  </si>
-  <si>
-    <t>The applicant wishes to return to their country for exceptional reasons (e.g. death of a relative, marriage of a relative, birth).</t>
-  </si>
-  <si>
-    <t>The applicant states that he wishes to apply for asylum.</t>
-  </si>
-  <si>
-    <t>DEMANDE D'AIDE FINANCIERE POUR UN DEMANDEUR D'ASILE</t>
-  </si>
-  <si>
-    <t>DEMANDE D'HEBERGEMENT D'URGENCE POUR UN DEMANDEUR D'ASILE</t>
-  </si>
-  <si>
-    <t>Le demandeur d'asile a besoin d'un hébergement d'urgence et en fait la demande</t>
-  </si>
-  <si>
-    <t>Le demandeur d'asile a besoin d'une aide financière et en fait la demande</t>
-  </si>
-  <si>
-    <t>APPLICATION FOR EMERGENCY ACCOMMODATION FOR AN ASYLUM SEEKER</t>
-  </si>
-  <si>
-    <t>APPLICATION FOR FINANCIAL ASSISTANCE FOR AN ASYLUM SEEKER</t>
-  </si>
-  <si>
-    <t>The asylum seeker requires emergency accommodation and has applied for it.</t>
-  </si>
-  <si>
-    <t>The asylum seeker requires financial assistance and is applying for it.</t>
-  </si>
-  <si>
-    <t>demandeur_d_asile</t>
-  </si>
-  <si>
-    <t>Demandeur d'asile</t>
-  </si>
-  <si>
-    <t>Asylum seeker</t>
-  </si>
-  <si>
-    <t>Le sauf-conduit est demandé pour motif de décès</t>
-  </si>
-  <si>
-    <t>demandeur d'asile</t>
-  </si>
-  <si>
-    <t>asylum seeker</t>
-  </si>
-  <si>
-    <t>aide_financiere_demandeur_asile asile_hebergement_urgence</t>
-  </si>
-  <si>
-    <t>RECEPISSE_VA_EXPIRER_DANS_X_JOURS</t>
-  </si>
-  <si>
-    <t>TITRE_SEJOUR_EXPIRE_DEPUIS_X_JOURS</t>
-  </si>
-  <si>
-    <t>TITRE_SEJOUR_VA_EXPIRER_DANS_X_JOURS</t>
-  </si>
-  <si>
-    <t>RELEVE_DE_L_ANEF</t>
-  </si>
-  <si>
-    <t>Please reach out to your contact at OFPRA or visit the[OFPRA website](https://www.usager.ofpra.gouv.fr/).</t>
-  </si>
-  <si>
-    <t>Veuillez vous adresser à votre contact OFPRA ou rendez-vous sur le site de l'[OFPRA](https://www.usager.ofpra.gouv.fr/).</t>
-  </si>
-  <si>
-    <t>Le récépissé va expirer dans {0} jour(s)</t>
-  </si>
-  <si>
-    <t>Le titre de séjour va expirer dans {0} jour(s)</t>
-  </si>
-  <si>
-    <t>Le titre de séjour est expiré depuis {0} jour(s)</t>
-  </si>
-  <si>
-    <t>L'API est expirée depuis {0} jour(s)</t>
-  </si>
-  <si>
-    <t>The receipt will expire in {0} day(s)</t>
-  </si>
-  <si>
-    <t>The residence permit will expire in {0} day(s)</t>
-  </si>
-  <si>
-    <t>The residence permit expired {0} day(s) ago</t>
-  </si>
-  <si>
-    <t>Relève de l'ANEF</t>
-  </si>
-  <si>
-    <t>Reports to ANEF</t>
-  </si>
-  <si>
-    <t>DEMANDEUR_D_ASILE</t>
-  </si>
-  <si>
-    <t>Est demadeur d'asile</t>
-  </si>
-  <si>
-    <t>Is an asylum seeker</t>
-  </si>
-  <si>
-    <t>STATUT</t>
-  </si>
-  <si>
-    <t>A déclaré le statut : {0}</t>
-  </si>
-  <si>
-    <t>Status is {0}</t>
-  </si>
-  <si>
-    <t>Si vous êtes sans solution, appeler le 115 pour trouver un hébergement d'urgence (appel gratuit).</t>
-  </si>
-  <si>
-    <t>If you are unable to find a solution, call 115 to find emergency accommodation (free call).</t>
-  </si>
-  <si>
-    <t>APPEL_115</t>
-  </si>
-  <si>
-    <t>AUCUNE_SOLUTION</t>
-  </si>
-  <si>
-    <t>La préfecture n'a aucune solution à vous proposer et nous en sommes désolés.</t>
-  </si>
-  <si>
-    <t>The prefecture has no solution to offer you, and we are sorry about that.</t>
-  </si>
-  <si>
-    <t>DEMANDE DE DUPLICATA</t>
-  </si>
-  <si>
-    <t>Le demandeur a besoin d'un duplicata</t>
-  </si>
-  <si>
-    <t>REQUEST FOR DUPLICATE</t>
-  </si>
-  <si>
-    <t>The applicant requires a duplicate copy.</t>
-  </si>
-  <si>
-    <t>duplicata</t>
+Préfecture des Yvelines
+Direction des migrations et de l'intégration</t>
+  </si>
+  <si>
+    <t>{prenom} {nom},
+Nous accusons réception de votre demande du {date_demande} à propos de votre procédure Dublin en cours.
+Nous vous prions d’agréer, {prenom} {nom}, l’expression de notre considération distinguée.
+Préfecture des Yvelines
+Direction des migrations et de l'intégration</t>
+  </si>
+  <si>
+    <t>numero_dossier_ANEF</t>
+  </si>
+  <si>
+    <t>Numéro de dossier ANEF</t>
+  </si>
+  <si>
+    <t>ANEF file number</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1659,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1681,7 +1692,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1707,24 +1717,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2027,7 +2033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40884519-E9E2-4702-AA20-B46B229B9942}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -2098,7 +2104,7 @@
         <v>155</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
@@ -2387,7 +2393,7 @@
         <v>172</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>26</v>
@@ -2397,156 +2403,156 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D26" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="E25" s="29" t="s">
+      <c r="C27" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="B28" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="E26" s="29" t="s">
+      <c r="B29" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="E29" s="28" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="E27" s="29" t="s">
+      <c r="B30" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="E30" s="28" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C30" s="2" t="s">
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D30" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>455</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>456</v>
+        <v>453</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -2637,10 +2643,10 @@
       <c r="B3" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>259</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -2657,16 +2663,16 @@
       <c r="B4" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>260</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2737,7 +2743,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -2801,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAADDD23-DB13-4EC8-8D22-BE27FCA5478C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2831,7 +2837,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="350" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>99</v>
       </c>
@@ -2845,10 +2851,10 @@
         <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>100</v>
       </c>
@@ -2862,41 +2868,41 @@
         <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>405</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -2927,14 +2933,14 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2958,13 +2964,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>232</v>
@@ -2975,13 +2981,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>313</v>
+        <v>455</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>232</v>
@@ -2992,13 +2998,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>232</v>
@@ -3009,13 +3015,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>232</v>
@@ -3026,13 +3032,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>232</v>
@@ -3043,13 +3049,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>232</v>
@@ -3060,13 +3066,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>232</v>
@@ -3077,13 +3083,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>232</v>
@@ -3094,13 +3100,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>232</v>
@@ -3111,13 +3117,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>232</v>
@@ -3128,13 +3134,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>232</v>
@@ -3145,13 +3151,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>232</v>
@@ -3162,13 +3168,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>232</v>
@@ -3179,13 +3185,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>232</v>
@@ -3196,13 +3202,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>232</v>
@@ -3213,13 +3219,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>232</v>
@@ -3540,12 +3546,12 @@
       <c r="D19" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H31" s="20"/>
+      <c r="H31" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3742,7 +3748,7 @@
         <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3757,69 +3763,69 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>428</v>
+      <c r="A5" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="B8" s="7" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>442</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>448</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -3863,10 +3869,10 @@
         <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -3875,10 +3881,10 @@
         <v>193</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>195</v>
@@ -3889,46 +3895,46 @@
         <v>192</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C6" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>453</v>
+      <c r="C7" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -3940,10 +3946,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF16B1B1-A6B4-4B56-9813-CCF1B731EDAC}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4019,10 +4025,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4072,10 +4078,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -4125,10 +4131,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -4178,10 +4184,10 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -4231,10 +4237,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -4284,10 +4290,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -4299,10 +4305,10 @@
       <c r="E7" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="36" t="s">
         <v>115</v>
       </c>
       <c r="H7" s="14" t="s">
@@ -4337,10 +4343,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -4390,10 +4396,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -4443,10 +4449,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -4496,10 +4502,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -4549,35 +4555,35 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>296</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>297</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>288</v>
@@ -4586,7 +4592,7 @@
         <v>232</v>
       </c>
       <c r="M12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>240</v>
@@ -4602,35 +4608,35 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E13" s="27" t="s">
+      <c r="C13" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>233</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="L13" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>357</v>
+      <c r="L13" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="N13" t="s">
-        <v>373</v>
-      </c>
-      <c r="O13" s="26" t="s">
-        <v>424</v>
+        <v>370</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>419</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>76</v>
@@ -4640,17 +4646,17 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>233</v>
@@ -4676,14 +4682,14 @@
       <c r="L14" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="M14" s="28" t="s">
-        <v>355</v>
+      <c r="M14" s="27" t="s">
+        <v>352</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>76</v>
@@ -4693,17 +4699,17 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>233</v>
@@ -4730,13 +4736,13 @@
         <v>232</v>
       </c>
       <c r="M15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>76</v>
@@ -4746,17 +4752,17 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>233</v>
@@ -4772,20 +4778,67 @@
       <c r="L16" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="M16" s="31" t="s">
-        <v>427</v>
-      </c>
-      <c r="N16" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="O16" s="26" t="s">
-        <v>425</v>
+      <c r="M16" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>420</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4934,7 +4987,7 @@
         <v>220</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">

--- a/runtime_dev/apps/delphes/delphes.xlsx
+++ b/runtime_dev/apps/delphes/delphes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Documents/Dev/Athena/trusted-service/runtime_dev/apps/delphes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C84CBA-62B5-E34D-B574-C03E9F8E1E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E509CE-2EEA-4741-BE64-F21549FC8658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18860" tabRatio="973" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="33600" windowHeight="18860" tabRatio="973" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP &amp; MODEL" sheetId="25" r:id="rId1"/>
@@ -1458,16 +1458,6 @@
   </si>
   <si>
     <t>{prenom} {nom},
-Nous accusons réception de votre demande du {date_demande} concernant l’expiration de votre Autorisation Provisoire de Séjour (API).
-Après examen de votre dossier, nous vous informons que votre demande a été enregistrée et traitée par nos services. Votre situation a bien été prise en compte et les éléments transmis seront intégrés à votre dossier en cours.
-Conformément à la réglementation, vous serez prochainement contacté afin de finaliser la procédure (convocation en préfecture ou communication de la décision administrative). Dans l’attente, il est important de conserver les justificatifs de dépôt ou de renouvellement qui vous ont été remis. Ceux-ci tiennent lieu de preuve de la régularité de votre séjour jusqu’à la notification d’une décision officielle.
-Nous vous invitons à rester attentif aux communications de la préfecture et à consulter régulièrement vos courriels. Pour toute question complémentaire ou en cas de modification de votre situation personnelle, vous pouvez contacter le service des étrangers par courrier électronique à l’adresse suivante : [adresse générique du service] ou par téléphone aux horaires d’accueil indiqués sur notre site.
-Nous vous prions d’agréer, {prenom} {nom}, l’expression de notre considération distinguée.
-Préfecture des Yvelines
-Direction des migrations et de l'intégration</t>
-  </si>
-  <si>
-    <t>{prenom} {nom},
 En réponse à votre demande, je vous invite à nous adresser une copie des éléments suivants :
 - l’acte de décès traduit
 - votre acte de naissance
@@ -1479,34 +1469,113 @@
 Direction des migrations et de l'intégration</t>
   </si>
   <si>
-    <t>{prenom} {nom},
-Nous accusons réception de votre demande du {date_demande} concernant l'expiration de votre Attestation de Demande d’Asile (ATDA).
+    <t>numero_dossier_ANEF</t>
+  </si>
+  <si>
+    <t>Numéro de dossier ANEF</t>
+  </si>
+  <si>
+    <t>ANEF file number</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{prenom} {nom},
+Nous accusons réception de votre demande du {date_demande} concernant l’expiration de votre </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Autorisation Provisoire d'Instruction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (API).
+Après examen de votre dossier, nous vous informons que votre demande a été enregistrée et traitée par nos services. Votre situation a bien été prise en compte et les éléments transmis seront intégrés à votre dossier en cours.
+Conformément à la réglementation, vous serez prochainement contacté afin de finaliser la procédure (convocation en préfecture ou communication de la décision administrative). Dans l’attente, il est important de conserver les justificatifs de dépôt ou de renouvellement qui vous ont été remis. Ceux-ci tiennent lieu de preuve de la régularité de votre séjour jusqu’à la notification d’une décision officielle.
+Nous vous invitons à rester attentif aux communications de la préfecture et à consulter régulièrement vos courriels. Pour toute question complémentaire ou en cas de modification de votre situation personnelle, vous pouvez contacter le service des étrangers par courrier électronique à l’adresse suivante : [adresse générique du service] ou par téléphone aux horaires d’accueil indiqués sur notre site.
 Nous vous prions d’agréer, {prenom} {nom}, l’expression de notre considération distinguée.
 Préfecture des Yvelines
 Direction des migrations et de l'intégration</t>
-  </si>
-  <si>
-    <t>{prenom} {nom},
-Nous accusons réception de votre demande du {date_demande} à propos de votre procédure Dublin en cours.
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{prenom} {nom},
+Nous accusons réception de votre demande du {date_demande} concernant </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l'expiration de votre Attestation de Demande d’Asile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ATDA).
 Nous vous prions d’agréer, {prenom} {nom}, l’expression de notre considération distinguée.
 Préfecture des Yvelines
 Direction des migrations et de l'intégration</t>
-  </si>
-  <si>
-    <t>numero_dossier_ANEF</t>
-  </si>
-  <si>
-    <t>Numéro de dossier ANEF</t>
-  </si>
-  <si>
-    <t>ANEF file number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{prenom} {nom},
+Nous accusons réception de votre demande du {date_demande} à propos de votre </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>procédure Dublin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en cours.
+Nous vous prions d’agréer, {prenom} {nom}, l’expression de notre considération distinguée.
+Préfecture des Yvelines
+Direction des migrations et de l'intégration</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1566,6 +1635,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2453,7 +2530,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
         <v>353</v>
       </c>
@@ -2807,8 +2884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAADDD23-DB13-4EC8-8D22-BE27FCA5478C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2851,7 +2928,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="208" x14ac:dyDescent="0.2">
@@ -2868,7 +2945,7 @@
         <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="160" x14ac:dyDescent="0.2">
@@ -2885,7 +2962,7 @@
         <v>344</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -2902,7 +2979,7 @@
         <v>402</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +4025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF16B1B1-A6B4-4B56-9813-CCF1B731EDAC}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -4796,16 +4873,16 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>233</v>
@@ -4829,10 +4906,10 @@
         <v>43</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>76</v>

--- a/runtime_dev/apps/delphes/delphes.xlsx
+++ b/runtime_dev/apps/delphes/delphes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Documents/Dev/Athena/trusted-service/runtime_dev/apps/delphes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E509CE-2EEA-4741-BE64-F21549FC8658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339C7AC1-23D2-BF4C-81ED-12C63B047F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="33600" windowHeight="18860" tabRatio="973" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="33600" windowHeight="18860" tabRatio="973" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP &amp; MODEL" sheetId="25" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="466">
   <si>
     <t>Parameter</t>
   </si>
@@ -1569,6 +1569,15 @@
 Préfecture des Yvelines
 Direction des migrations et de l'intégration</t>
     </r>
+  </si>
+  <si>
+    <t>INTENTION_AUTRE</t>
+  </si>
+  <si>
+    <t>Le demandeur a sélectionné l'intention "Autre"</t>
+  </si>
+  <si>
+    <t>The applicant has selected the intention "Other"</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1745,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1803,11 +1812,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2110,7 +2120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40884519-E9E2-4702-AA20-B46B229B9942}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -2625,10 +2635,10 @@
       <c r="C33" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="34" t="s">
         <v>450</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="34" t="s">
         <v>451</v>
       </c>
     </row>
@@ -2884,7 +2894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAADDD23-DB13-4EC8-8D22-BE27FCA5478C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3782,16 +3792,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ED06FD-CD59-4243-896C-6A0821CD9182}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3895,14 +3905,25 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="7" t="s">
         <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -4382,10 +4403,10 @@
       <c r="E7" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="35" t="s">
         <v>115</v>
       </c>
       <c r="H7" s="14" t="s">
